--- a/Code/Results/Cases/Case_2_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_6/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.780493480803898</v>
+        <v>3.780493480803955</v>
       </c>
       <c r="C2">
-        <v>0.9973463082008038</v>
+        <v>0.9973463082006333</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1057977272499713</v>
+        <v>0.1057977272500352</v>
       </c>
       <c r="F2">
-        <v>6.824462415374285</v>
+        <v>6.824462415374398</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.79899991267078</v>
+        <v>2.798999912670823</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.08763501713876209</v>
+        <v>0.08763501713865818</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.213329023820052</v>
+        <v>3.213329023820222</v>
       </c>
       <c r="C3">
-        <v>0.8465432088045475</v>
+        <v>0.8465432088046043</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08773494601176779</v>
+        <v>0.08773494601188148</v>
       </c>
       <c r="F3">
-        <v>5.835884141487867</v>
+        <v>5.835884141487838</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.401601950433431</v>
+        <v>2.401601950433502</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.07059843790582487</v>
+        <v>0.07059843790578846</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>2.878535023403174</v>
       </c>
       <c r="C4">
-        <v>0.7573774656221417</v>
+        <v>0.757377465622568</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07747729989011631</v>
+        <v>0.07747729989007013</v>
       </c>
       <c r="F4">
-        <v>5.25259862189634</v>
+        <v>5.252598621896453</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.168161446445424</v>
+        <v>2.168161446445509</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.06115436197154978</v>
+        <v>0.06115436197153823</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.744898443558611</v>
+        <v>2.744898443557929</v>
       </c>
       <c r="C5">
         <v>0.7217447282369847</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07346475342134795</v>
+        <v>0.0734647534214119</v>
       </c>
       <c r="F5">
         <v>5.019761423991241</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.075180013309378</v>
+        <v>2.075180013309293</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.05750989080993829</v>
+        <v>0.05750989080988678</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.722861624954874</v>
+        <v>2.722861624954646</v>
       </c>
       <c r="C6">
-        <v>0.7158662408705823</v>
+        <v>0.7158662408706391</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0728075137837827</v>
+        <v>0.07280751378379691</v>
       </c>
       <c r="F6">
         <v>4.981363463103463</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.05691573742156919</v>
+        <v>0.05691573742161626</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.876722144065013</v>
+        <v>2.876722144064843</v>
       </c>
       <c r="C7">
-        <v>0.7568942547289623</v>
+        <v>0.7568942547279676</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07742255663282904</v>
+        <v>0.07742255663271891</v>
       </c>
       <c r="F7">
-        <v>5.249440160521914</v>
+        <v>5.249440160521772</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.166899380692868</v>
+        <v>2.166899380692769</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.06110444583926444</v>
+        <v>0.06110444583923247</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.581758271819297</v>
+        <v>3.581758271819353</v>
       </c>
       <c r="C8">
-        <v>0.9445333352706768</v>
+        <v>0.9445333352703642</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0993688220969382</v>
+        <v>0.09936882209690623</v>
       </c>
       <c r="F8">
-        <v>6.477952416206307</v>
+        <v>6.477952416206222</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.659448586554674</v>
+        <v>2.659448586554603</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.08151532091575486</v>
+        <v>0.08151532091571045</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.104210450316032</v>
+        <v>5.104210450315804</v>
       </c>
       <c r="C9">
-        <v>1.348688420706083</v>
+        <v>1.348688420705571</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1514800724135839</v>
+        <v>0.1514800724134773</v>
       </c>
       <c r="F9">
-        <v>9.138015586119877</v>
+        <v>9.138015586119707</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.73826685295802</v>
+        <v>3.738266852957921</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.1326674818630327</v>
+        <v>0.1326674818630655</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.369643763378178</v>
+        <v>6.369643763378235</v>
       </c>
       <c r="C10">
-        <v>1.684405650302892</v>
+        <v>1.684405650302836</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2001197463372009</v>
+        <v>0.200119746337208</v>
       </c>
       <c r="F10">
         <v>11.36318908316576</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.654706782652028</v>
+        <v>4.654706782651886</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.1830856087156052</v>
+        <v>0.1830856087156087</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.997867716711539</v>
+        <v>6.997867716710459</v>
       </c>
       <c r="C11">
-        <v>1.851162131924127</v>
+        <v>1.851162131923502</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2262262957643628</v>
+        <v>0.226226295764306</v>
       </c>
       <c r="F11">
-        <v>12.47433091490825</v>
+        <v>12.47433091490802</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5.117385871862922</v>
+        <v>5.117385871862751</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.2110084324966435</v>
+        <v>0.211008432496663</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.245899942034839</v>
+        <v>7.245899942035692</v>
       </c>
       <c r="C12">
-        <v>1.91702807551826</v>
+        <v>1.917028075519056</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2369137638396666</v>
+        <v>0.2369137638396275</v>
       </c>
       <c r="F12">
-        <v>12.91438228258323</v>
+        <v>12.91438228258335</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.3015848639551</v>
+        <v>5.301584863955213</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.2225927469085764</v>
+        <v>0.222592746908564</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.191978564902058</v>
+        <v>7.19197856490166</v>
       </c>
       <c r="C13">
         <v>1.902707523230447</v>
@@ -839,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2345715791824716</v>
+        <v>0.2345715791824894</v>
       </c>
       <c r="F13">
-        <v>12.81864799439217</v>
+        <v>12.81864799439222</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.261464878498685</v>
+        <v>5.261464878498629</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.220046746351068</v>
+        <v>0.2200467463510769</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.018051859678621</v>
+        <v>7.018051859679304</v>
       </c>
       <c r="C14">
-        <v>1.856521459695898</v>
+        <v>1.85652145969658</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2270878095267399</v>
+        <v>0.2270878095268429</v>
       </c>
       <c r="F14">
-        <v>12.51011118944081</v>
+        <v>12.51011118944109</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.132342383014532</v>
+        <v>5.132342383014674</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2119390608150162</v>
+        <v>0.2119390608150447</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.912930687340122</v>
+        <v>6.912930687339667</v>
       </c>
       <c r="C15">
-        <v>1.828610717665242</v>
+        <v>1.82861071766348</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.22261671686406</v>
+        <v>0.2226167168640742</v>
       </c>
       <c r="F15">
-        <v>12.32382046896481</v>
+        <v>12.32382046896498</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>5.054510700232896</v>
+        <v>5.05451070023301</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2071154562557975</v>
+        <v>0.2071154562557398</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.329844540487898</v>
+        <v>6.329844540487272</v>
       </c>
       <c r="C16">
-        <v>1.673844199242069</v>
+        <v>1.673844199243035</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1985111227437883</v>
+        <v>0.1985111227437351</v>
       </c>
       <c r="F16">
-        <v>11.29295270211179</v>
+        <v>11.29295270211156</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.625575655389412</v>
+        <v>4.625575655389298</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.1813833977156989</v>
+        <v>0.1813833977157389</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.987156255503294</v>
+        <v>5.98715625550318</v>
       </c>
       <c r="C17">
-        <v>1.582916631021305</v>
+        <v>1.582916631021988</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1848771019890592</v>
+        <v>0.1848771019889703</v>
       </c>
       <c r="F17">
-        <v>10.68890981266657</v>
+        <v>10.68890981266682</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.375600928314384</v>
+        <v>4.375600928314526</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.1670468060314834</v>
+        <v>0.1670468060314594</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.794802093002488</v>
+        <v>5.794802093001749</v>
       </c>
       <c r="C18">
         <v>1.531885126647069</v>
@@ -1029,10 +1029,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1773918611183696</v>
+        <v>0.1773918611184904</v>
       </c>
       <c r="F18">
-        <v>10.35039959600601</v>
+        <v>10.35039959600593</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.235945755208661</v>
+        <v>4.235945755208604</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.1592471768820198</v>
+        <v>0.1592471768821833</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.730426499553175</v>
+        <v>5.730426499552834</v>
       </c>
       <c r="C19">
-        <v>1.514807123968694</v>
+        <v>1.514807123970058</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1749132523630976</v>
+        <v>0.1749132523630905</v>
       </c>
       <c r="F19">
-        <v>10.23719333099098</v>
+        <v>10.23719333099137</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.189310258336462</v>
+        <v>4.189310258336661</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.1566760147452371</v>
+        <v>0.156676014745214</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.023128623460138</v>
+        <v>6.023128623459854</v>
       </c>
       <c r="C20">
-        <v>1.592460574639233</v>
+        <v>1.592460574638949</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0.1862901946747613</v>
       </c>
       <c r="F20">
-        <v>10.75225750536396</v>
+        <v>10.75225750536418</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.401769886764384</v>
+        <v>4.401769886764583</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.1685250288539812</v>
+        <v>0.1685250288539901</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.068837543442555</v>
+        <v>7.068837543442726</v>
       </c>
       <c r="C21">
-        <v>1.87000665926189</v>
+        <v>1.870006659262231</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2292618727420681</v>
+        <v>0.2292618727421534</v>
       </c>
       <c r="F21">
-        <v>12.60016171117132</v>
+        <v>12.6001617111707</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5.170000477533904</v>
+        <v>5.170000477533591</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2142900417342499</v>
+        <v>0.2142900417343112</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.81341960259897</v>
+        <v>7.813419602598572</v>
       </c>
       <c r="C22">
-        <v>2.067807024954504</v>
+        <v>2.067807024953652</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2622137222446064</v>
+        <v>0.262213722244681</v>
       </c>
       <c r="F22">
         <v>13.92440458505376</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.726474988745963</v>
+        <v>5.726474988745906</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.2503425425039421</v>
+        <v>0.2503425425039989</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.40927501719932</v>
+        <v>7.409275017199434</v>
       </c>
       <c r="C23">
-        <v>1.9604229674149</v>
+        <v>1.96042296741615</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2440747497186777</v>
+        <v>0.2440747497189548</v>
       </c>
       <c r="F23">
-        <v>13.20468360624909</v>
+        <v>13.20468360624949</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.423404211342785</v>
+        <v>5.423404211343012</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.2304016012264221</v>
+        <v>0.2304016012264523</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,16 +1251,16 @@
         <v>6.006851174228359</v>
       </c>
       <c r="C24">
-        <v>1.588141931714802</v>
+        <v>1.588141931714972</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1856502512148204</v>
+        <v>0.1856502512147138</v>
       </c>
       <c r="F24">
-        <v>10.72359107222724</v>
+        <v>10.72359107222698</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.389926425356009</v>
+        <v>4.389926425355839</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.1678553655639607</v>
+        <v>0.1678553655639377</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.672004909024963</v>
+        <v>4.672004909024565</v>
       </c>
       <c r="C25">
-        <v>1.234023198384762</v>
+        <v>1.234023198383966</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1360037713380322</v>
+        <v>0.1360037713379754</v>
       </c>
       <c r="F25">
-        <v>8.381326147550254</v>
+        <v>8.381326147550197</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.429587018824577</v>
+        <v>3.429587018824492</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.117129970833421</v>
+        <v>0.1171299708333713</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_6/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.780493480803955</v>
+        <v>3.780493480803898</v>
       </c>
       <c r="C2">
-        <v>0.9973463082006333</v>
+        <v>0.9973463082008038</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1057977272500352</v>
+        <v>0.1057977272499713</v>
       </c>
       <c r="F2">
-        <v>6.824462415374398</v>
+        <v>6.824462415374285</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,13 +433,13 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.798999912670823</v>
+        <v>2.79899991267078</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.08763501713865818</v>
+        <v>0.08763501713876209</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.213329023820222</v>
+        <v>3.213329023820052</v>
       </c>
       <c r="C3">
-        <v>0.8465432088046043</v>
+        <v>0.8465432088045475</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08773494601188148</v>
+        <v>0.08773494601176779</v>
       </c>
       <c r="F3">
-        <v>5.835884141487838</v>
+        <v>5.835884141487867</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.401601950433502</v>
+        <v>2.401601950433431</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.07059843790578846</v>
+        <v>0.07059843790582487</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -491,16 +491,16 @@
         <v>2.878535023403174</v>
       </c>
       <c r="C4">
-        <v>0.757377465622568</v>
+        <v>0.7573774656221417</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07747729989007013</v>
+        <v>0.07747729989011631</v>
       </c>
       <c r="F4">
-        <v>5.252598621896453</v>
+        <v>5.25259862189634</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,13 +509,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.168161446445509</v>
+        <v>2.168161446445424</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.06115436197153823</v>
+        <v>0.06115436197154978</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,7 +526,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.744898443557929</v>
+        <v>2.744898443558611</v>
       </c>
       <c r="C5">
         <v>0.7217447282369847</v>
@@ -535,7 +535,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0734647534214119</v>
+        <v>0.07346475342134795</v>
       </c>
       <c r="F5">
         <v>5.019761423991241</v>
@@ -547,13 +547,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.075180013309293</v>
+        <v>2.075180013309378</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.05750989080988678</v>
+        <v>0.05750989080993829</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.722861624954646</v>
+        <v>2.722861624954874</v>
       </c>
       <c r="C6">
-        <v>0.7158662408706391</v>
+        <v>0.7158662408705823</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07280751378379691</v>
+        <v>0.0728075137837827</v>
       </c>
       <c r="F6">
         <v>4.981363463103463</v>
@@ -591,7 +591,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.05691573742161626</v>
+        <v>0.05691573742156919</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.876722144064843</v>
+        <v>2.876722144065013</v>
       </c>
       <c r="C7">
-        <v>0.7568942547279676</v>
+        <v>0.7568942547289623</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07742255663271891</v>
+        <v>0.07742255663282904</v>
       </c>
       <c r="F7">
-        <v>5.249440160521772</v>
+        <v>5.249440160521914</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.166899380692769</v>
+        <v>2.166899380692868</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.06110444583923247</v>
+        <v>0.06110444583926444</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.581758271819353</v>
+        <v>3.581758271819297</v>
       </c>
       <c r="C8">
-        <v>0.9445333352703642</v>
+        <v>0.9445333352706768</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.09936882209690623</v>
+        <v>0.0993688220969382</v>
       </c>
       <c r="F8">
-        <v>6.477952416206222</v>
+        <v>6.477952416206307</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.659448586554603</v>
+        <v>2.659448586554674</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.08151532091571045</v>
+        <v>0.08151532091575486</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.104210450315804</v>
+        <v>5.104210450316032</v>
       </c>
       <c r="C9">
-        <v>1.348688420705571</v>
+        <v>1.348688420706083</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1514800724134773</v>
+        <v>0.1514800724135839</v>
       </c>
       <c r="F9">
-        <v>9.138015586119707</v>
+        <v>9.138015586119877</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,13 +699,13 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.738266852957921</v>
+        <v>3.73826685295802</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.1326674818630655</v>
+        <v>0.1326674818630327</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.369643763378235</v>
+        <v>6.369643763378178</v>
       </c>
       <c r="C10">
-        <v>1.684405650302836</v>
+        <v>1.684405650302892</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.200119746337208</v>
+        <v>0.2001197463372009</v>
       </c>
       <c r="F10">
         <v>11.36318908316576</v>
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.654706782651886</v>
+        <v>4.654706782652028</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.1830856087156087</v>
+        <v>0.1830856087156052</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.997867716710459</v>
+        <v>6.997867716711539</v>
       </c>
       <c r="C11">
-        <v>1.851162131923502</v>
+        <v>1.851162131924127</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.226226295764306</v>
+        <v>0.2262262957643628</v>
       </c>
       <c r="F11">
-        <v>12.47433091490802</v>
+        <v>12.47433091490825</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,13 +775,13 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5.117385871862751</v>
+        <v>5.117385871862922</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.211008432496663</v>
+        <v>0.2110084324966435</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.245899942035692</v>
+        <v>7.245899942034839</v>
       </c>
       <c r="C12">
-        <v>1.917028075519056</v>
+        <v>1.91702807551826</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2369137638396275</v>
+        <v>0.2369137638396666</v>
       </c>
       <c r="F12">
-        <v>12.91438228258335</v>
+        <v>12.91438228258323</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,13 +813,13 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.301584863955213</v>
+        <v>5.3015848639551</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.222592746908564</v>
+        <v>0.2225927469085764</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.19197856490166</v>
+        <v>7.191978564902058</v>
       </c>
       <c r="C13">
         <v>1.902707523230447</v>
@@ -839,10 +839,10 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2345715791824894</v>
+        <v>0.2345715791824716</v>
       </c>
       <c r="F13">
-        <v>12.81864799439222</v>
+        <v>12.81864799439217</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,13 +851,13 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.261464878498629</v>
+        <v>5.261464878498685</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.2200467463510769</v>
+        <v>0.220046746351068</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.018051859679304</v>
+        <v>7.018051859678621</v>
       </c>
       <c r="C14">
-        <v>1.85652145969658</v>
+        <v>1.856521459695898</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2270878095268429</v>
+        <v>0.2270878095267399</v>
       </c>
       <c r="F14">
-        <v>12.51011118944109</v>
+        <v>12.51011118944081</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,13 +889,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.132342383014674</v>
+        <v>5.132342383014532</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.2119390608150447</v>
+        <v>0.2119390608150162</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.912930687339667</v>
+        <v>6.912930687340122</v>
       </c>
       <c r="C15">
-        <v>1.82861071766348</v>
+        <v>1.828610717665242</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2226167168640742</v>
+        <v>0.22261671686406</v>
       </c>
       <c r="F15">
-        <v>12.32382046896498</v>
+        <v>12.32382046896481</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,13 +927,13 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>5.05451070023301</v>
+        <v>5.054510700232896</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.2071154562557398</v>
+        <v>0.2071154562557975</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.329844540487272</v>
+        <v>6.329844540487898</v>
       </c>
       <c r="C16">
-        <v>1.673844199243035</v>
+        <v>1.673844199242069</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1985111227437351</v>
+        <v>0.1985111227437883</v>
       </c>
       <c r="F16">
-        <v>11.29295270211156</v>
+        <v>11.29295270211179</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.625575655389298</v>
+        <v>4.625575655389412</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.1813833977157389</v>
+        <v>0.1813833977156989</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.98715625550318</v>
+        <v>5.987156255503294</v>
       </c>
       <c r="C17">
-        <v>1.582916631021988</v>
+        <v>1.582916631021305</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1848771019889703</v>
+        <v>0.1848771019890592</v>
       </c>
       <c r="F17">
-        <v>10.68890981266682</v>
+        <v>10.68890981266657</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,13 +1003,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.375600928314526</v>
+        <v>4.375600928314384</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.1670468060314594</v>
+        <v>0.1670468060314834</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.794802093001749</v>
+        <v>5.794802093002488</v>
       </c>
       <c r="C18">
         <v>1.531885126647069</v>
@@ -1029,10 +1029,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1773918611184904</v>
+        <v>0.1773918611183696</v>
       </c>
       <c r="F18">
-        <v>10.35039959600593</v>
+        <v>10.35039959600601</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,13 +1041,13 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.235945755208604</v>
+        <v>4.235945755208661</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.1592471768821833</v>
+        <v>0.1592471768820198</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.730426499552834</v>
+        <v>5.730426499553175</v>
       </c>
       <c r="C19">
-        <v>1.514807123970058</v>
+        <v>1.514807123968694</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1749132523630905</v>
+        <v>0.1749132523630976</v>
       </c>
       <c r="F19">
-        <v>10.23719333099137</v>
+        <v>10.23719333099098</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.189310258336661</v>
+        <v>4.189310258336462</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.156676014745214</v>
+        <v>0.1566760147452371</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1096,10 +1096,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.023128623459854</v>
+        <v>6.023128623460138</v>
       </c>
       <c r="C20">
-        <v>1.592460574638949</v>
+        <v>1.592460574639233</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0.1862901946747613</v>
       </c>
       <c r="F20">
-        <v>10.75225750536418</v>
+        <v>10.75225750536396</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.401769886764583</v>
+        <v>4.401769886764384</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.1685250288539901</v>
+        <v>0.1685250288539812</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.068837543442726</v>
+        <v>7.068837543442555</v>
       </c>
       <c r="C21">
-        <v>1.870006659262231</v>
+        <v>1.87000665926189</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2292618727421534</v>
+        <v>0.2292618727420681</v>
       </c>
       <c r="F21">
-        <v>12.6001617111707</v>
+        <v>12.60016171117132</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,13 +1155,13 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5.170000477533591</v>
+        <v>5.170000477533904</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.2142900417343112</v>
+        <v>0.2142900417342499</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.813419602598572</v>
+        <v>7.81341960259897</v>
       </c>
       <c r="C22">
-        <v>2.067807024953652</v>
+        <v>2.067807024954504</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.262213722244681</v>
+        <v>0.2622137222446064</v>
       </c>
       <c r="F22">
         <v>13.92440458505376</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.726474988745906</v>
+        <v>5.726474988745963</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.2503425425039989</v>
+        <v>0.2503425425039421</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.409275017199434</v>
+        <v>7.40927501719932</v>
       </c>
       <c r="C23">
-        <v>1.96042296741615</v>
+        <v>1.9604229674149</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2440747497189548</v>
+        <v>0.2440747497186777</v>
       </c>
       <c r="F23">
-        <v>13.20468360624949</v>
+        <v>13.20468360624909</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.423404211343012</v>
+        <v>5.423404211342785</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.2304016012264523</v>
+        <v>0.2304016012264221</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1251,16 +1251,16 @@
         <v>6.006851174228359</v>
       </c>
       <c r="C24">
-        <v>1.588141931714972</v>
+        <v>1.588141931714802</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1856502512147138</v>
+        <v>0.1856502512148204</v>
       </c>
       <c r="F24">
-        <v>10.72359107222698</v>
+        <v>10.72359107222724</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,13 +1269,13 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.389926425355839</v>
+        <v>4.389926425356009</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.1678553655639377</v>
+        <v>0.1678553655639607</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.672004909024565</v>
+        <v>4.672004909024963</v>
       </c>
       <c r="C25">
-        <v>1.234023198383966</v>
+        <v>1.234023198384762</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1360037713379754</v>
+        <v>0.1360037713380322</v>
       </c>
       <c r="F25">
-        <v>8.381326147550197</v>
+        <v>8.381326147550254</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,13 +1307,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.429587018824492</v>
+        <v>3.429587018824577</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.1171299708333713</v>
+        <v>0.117129970833421</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.780493480803898</v>
+        <v>3.731340201356772</v>
       </c>
       <c r="C2">
-        <v>0.9973463082008038</v>
+        <v>0.9762356643186081</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1057977272499713</v>
+        <v>0.1097679385106929</v>
       </c>
       <c r="F2">
-        <v>6.824462415374285</v>
+        <v>6.808810681336439</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007595925153309611</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.79899991267078</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2.800486142229531</v>
       </c>
       <c r="K2">
-        <v>0.08763501713876209</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.08836314521004063</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.213329023820052</v>
+        <v>3.173885274292445</v>
       </c>
       <c r="C3">
-        <v>0.8465432088045475</v>
+        <v>0.8284626014287824</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.08773494601176779</v>
+        <v>0.09148077931165588</v>
       </c>
       <c r="F3">
-        <v>5.835884141487867</v>
+        <v>5.825968998556448</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007741856701751022</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.401601950433431</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2.405855808269038</v>
       </c>
       <c r="K3">
-        <v>0.07059843790582487</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.07133681290490923</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.878535023403174</v>
+        <v>2.844901586962294</v>
       </c>
       <c r="C4">
-        <v>0.7573774656221417</v>
+        <v>0.7411129249582302</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.07747729989011631</v>
+        <v>0.08107258110075932</v>
       </c>
       <c r="F4">
-        <v>5.25259862189634</v>
+        <v>5.245901463913498</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.0007832118399719558</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.168161446445424</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2.173942249478259</v>
       </c>
       <c r="K4">
-        <v>0.06115436197154978</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.06188456800052933</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.744898443558611</v>
+        <v>2.713608584664996</v>
       </c>
       <c r="C5">
-        <v>0.7217447282369847</v>
+        <v>0.7062132464816102</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07346475342134795</v>
+        <v>0.07699591262303684</v>
       </c>
       <c r="F5">
-        <v>5.019761423991241</v>
+        <v>5.014316954434605</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007869153747848652</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.075180013309378</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2.081549122439469</v>
       </c>
       <c r="K5">
-        <v>0.05750989080993829</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.05823395309303869</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.722861624954874</v>
+        <v>2.691959806136936</v>
       </c>
       <c r="C6">
-        <v>0.7158662408705823</v>
+        <v>0.7004561653381529</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.0728075137837827</v>
+        <v>0.07632786855277374</v>
       </c>
       <c r="F6">
-        <v>4.981363463103463</v>
+        <v>4.976123900597912</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007875321008403503</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.059856970230499</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2.06632195110133</v>
       </c>
       <c r="K6">
-        <v>0.05691573742156919</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.05763862917446705</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.876722144065013</v>
+        <v>2.843120395596145</v>
       </c>
       <c r="C7">
-        <v>0.7568942547289623</v>
+        <v>0.7406396238438333</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07742255663282904</v>
+        <v>0.08101698380765399</v>
       </c>
       <c r="F7">
-        <v>5.249440160521914</v>
+        <v>5.242760113776683</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007832616742157752</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.166899380692868</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>2.172688244414076</v>
       </c>
       <c r="K7">
-        <v>0.06110444583926444</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.06183457949384419</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.581758271819297</v>
+        <v>3.535993656691119</v>
       </c>
       <c r="C8">
-        <v>0.9445333352706768</v>
+        <v>0.9244794679478616</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.0993688220969382</v>
+        <v>0.1032646390892467</v>
       </c>
       <c r="F8">
-        <v>6.477952416206307</v>
+        <v>6.46435406840709</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007646162793935848</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.659448586554674</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>2.661931324395511</v>
       </c>
       <c r="K8">
-        <v>0.08151532091575486</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.08225056171901279</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.104210450316032</v>
+        <v>5.03254219799328</v>
       </c>
       <c r="C9">
-        <v>1.348688420706083</v>
+        <v>1.320578926048597</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1514800724135839</v>
+        <v>0.1558336597894865</v>
       </c>
       <c r="F9">
-        <v>9.138015586119877</v>
+        <v>9.107297967190704</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007280850809964791</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3.73826685295802</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>3.73230059137336</v>
       </c>
       <c r="K9">
-        <v>0.1326674818630327</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.1332418892904812</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.369643763378178</v>
+        <v>6.27592727116064</v>
       </c>
       <c r="C10">
-        <v>1.684405650302892</v>
+        <v>1.649487971708652</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2001197463372009</v>
+        <v>0.2046493696779059</v>
       </c>
       <c r="F10">
-        <v>11.36318908316576</v>
+        <v>11.31524462262274</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007003593065699754</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>4.654706782652028</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>4.640035219935811</v>
       </c>
       <c r="K10">
-        <v>0.1830856087156052</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.1833053256800374</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.997867716711539</v>
+        <v>6.892776921632333</v>
       </c>
       <c r="C11">
-        <v>1.851162131924127</v>
+        <v>1.812753050310846</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2262262957643628</v>
+        <v>0.2307637590947849</v>
       </c>
       <c r="F11">
-        <v>12.47433091490825</v>
+        <v>12.41650927638176</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0006872519323486843</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5.117385871862922</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.0976748740174</v>
       </c>
       <c r="K11">
-        <v>0.2110084324966435</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.2109558159414755</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.245899942034839</v>
+        <v>7.136210020639169</v>
       </c>
       <c r="C12">
-        <v>1.91702807551826</v>
+        <v>1.87721166064</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2369137638396666</v>
+        <v>0.2414376469048172</v>
       </c>
       <c r="F12">
-        <v>12.91438228258323</v>
+        <v>12.85237199864503</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006821798404025398</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.3015848639551</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.279729918327831</v>
       </c>
       <c r="K12">
-        <v>0.2225927469085764</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.2224115569697798</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.191978564902058</v>
+        <v>7.083294297916154</v>
       </c>
       <c r="C13">
-        <v>1.902707523230447</v>
+        <v>1.863198616235138</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2345715791824716</v>
+        <v>0.2390992683192081</v>
       </c>
       <c r="F13">
-        <v>12.81864799439217</v>
+        <v>12.75756324706595</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006832777958032388</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.261464878498685</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.240083960640874</v>
       </c>
       <c r="K13">
-        <v>0.220046746351068</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.2198945988638767</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.018051859678621</v>
+        <v>6.912589300619572</v>
       </c>
       <c r="C14">
-        <v>1.856521459695898</v>
+        <v>1.817998522068251</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2270878095267399</v>
+        <v>0.2316245377981829</v>
       </c>
       <c r="F14">
-        <v>12.51011118944081</v>
+        <v>12.45195515494521</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006868370925731234</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.132342383014532</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.112460355862623</v>
       </c>
       <c r="K14">
-        <v>0.2119390608150162</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.2118764531031232</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.912930687340122</v>
+        <v>6.809399672695065</v>
       </c>
       <c r="C15">
-        <v>1.828610717665242</v>
+        <v>1.790679514894407</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.22261671686406</v>
+        <v>0.2271565731762557</v>
       </c>
       <c r="F15">
-        <v>12.32382046896481</v>
+        <v>12.267393818556</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0006890017600081837</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>5.054510700232896</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.03551291689476</v>
       </c>
       <c r="K15">
-        <v>0.2071154562557975</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.2071039951725364</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.329844540487898</v>
+        <v>6.236837010028069</v>
       </c>
       <c r="C16">
-        <v>1.673844199242069</v>
+        <v>1.639144634710249</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.1985111227437883</v>
+        <v>0.2030383391323163</v>
       </c>
       <c r="F16">
-        <v>11.29295270211179</v>
+        <v>11.24560132219779</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007012030549752313</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>4.625575655389412</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>4.61120581390432</v>
       </c>
       <c r="K16">
-        <v>0.1813833977156989</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.1816179940653138</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.987156255503294</v>
+        <v>5.900204377541741</v>
       </c>
       <c r="C17">
-        <v>1.582916631021305</v>
+        <v>1.550082370224743</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1848771019890592</v>
+        <v>0.1893747786376743</v>
       </c>
       <c r="F17">
-        <v>10.68890981266657</v>
+        <v>10.64651733181461</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007085388431546583</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>4.375600928314384</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>4.363749112331732</v>
       </c>
       <c r="K17">
-        <v>0.1670468060314834</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.167398795886923</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.794802093002488</v>
+        <v>5.711214650658746</v>
       </c>
       <c r="C18">
-        <v>1.531885126647069</v>
+        <v>1.500088909928536</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1773918611183696</v>
+        <v>0.1818662643349143</v>
       </c>
       <c r="F18">
-        <v>10.35039959600601</v>
+        <v>10.31067992824106</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007127144854488746</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>4.235945755208661</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>4.225447209223631</v>
       </c>
       <c r="K18">
-        <v>0.1592471768820198</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.1596570303344089</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.730426499553175</v>
+        <v>5.647960081128815</v>
       </c>
       <c r="C19">
-        <v>1.514807123968694</v>
+        <v>1.483357044931267</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1749132523630976</v>
+        <v>0.1793788268008996</v>
       </c>
       <c r="F19">
-        <v>10.23719333099098</v>
+        <v>10.19835126473725</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007141217084818066</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>4.189310258336462</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>4.179255377412176</v>
       </c>
       <c r="K19">
-        <v>0.1566760147452371</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.1571040055298338</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6.023128623460138</v>
+        <v>5.935544947588312</v>
       </c>
       <c r="C20">
-        <v>1.592460574639233</v>
+        <v>1.559431516532015</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1862901946747613</v>
+        <v>0.1907916988819238</v>
       </c>
       <c r="F20">
-        <v>10.75225750536396</v>
+        <v>10.70935656970568</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007077626884500308</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>4.401769886764384</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>4.389660305062364</v>
       </c>
       <c r="K20">
-        <v>0.1685250288539812</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.1688655727776842</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.068837543442555</v>
+        <v>6.96243766900983</v>
       </c>
       <c r="C21">
-        <v>1.87000665926189</v>
+        <v>1.8311967351259</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2292618727420681</v>
+        <v>0.2337964654810492</v>
       </c>
       <c r="F21">
-        <v>12.60016171117132</v>
+        <v>12.54115931024916</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006857949608899884</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5.170000477533904</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.149685464841497</v>
       </c>
       <c r="K21">
-        <v>0.2142900417342499</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.2142019313592289</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.81341960259897</v>
+        <v>7.692927509627225</v>
       </c>
       <c r="C22">
-        <v>2.067807024954504</v>
+        <v>2.024695596352728</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2622137222446064</v>
+        <v>0.2666667817508284</v>
       </c>
       <c r="F22">
-        <v>13.92440458505376</v>
+        <v>13.85211108598753</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006707748764220716</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.726474988745963</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.699344015735363</v>
       </c>
       <c r="K22">
-        <v>0.2503425425039421</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.2498159680976642</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.40927501719932</v>
+        <v>7.296517276416921</v>
       </c>
       <c r="C23">
-        <v>1.9604229674149</v>
+        <v>1.91966925809686</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2440747497186777</v>
+        <v>0.2485841083026834</v>
       </c>
       <c r="F23">
-        <v>13.20468360624909</v>
+        <v>13.13981649982367</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006788687243882561</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.423404211342785</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.400085140839138</v>
       </c>
       <c r="K23">
-        <v>0.2304016012264221</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.2301285716143067</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6.006851174228359</v>
+        <v>5.919553492150044</v>
       </c>
       <c r="C24">
-        <v>1.588141931714802</v>
+        <v>1.555201046533625</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1856502512148204</v>
+        <v>0.1901500441800756</v>
       </c>
       <c r="F24">
-        <v>10.72359107222724</v>
+        <v>10.6809205535825</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007081137151439473</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>4.389926425356009</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>4.377933668187154</v>
       </c>
       <c r="K24">
-        <v>0.1678553655639607</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.1682011135645212</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.672004909024963</v>
+        <v>4.607707952280123</v>
       </c>
       <c r="C25">
-        <v>1.234023198384762</v>
+        <v>1.208200435307674</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1360037713380322</v>
+        <v>0.1402535961989848</v>
       </c>
       <c r="F25">
-        <v>8.381326147550254</v>
+        <v>8.355816580872215</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007380434349339993</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>3.429587018824577</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>3.426219940282323</v>
       </c>
       <c r="K25">
-        <v>0.117129970833421</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>0.1177761970740363</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.731340201356772</v>
+        <v>6.123959448473329</v>
       </c>
       <c r="C2">
-        <v>0.9762356643186081</v>
+        <v>1.033563828532692</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1097679385106929</v>
+        <v>0.01180996007227675</v>
       </c>
       <c r="F2">
-        <v>6.808810681336439</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007595925153309611</v>
+        <v>0.0007970384078077546</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>2.800486142229531</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.08836314521004063</v>
+        <v>0.3958751923339463</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>1.80102745677685</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.173885274292445</v>
+        <v>5.314194353174571</v>
       </c>
       <c r="C3">
-        <v>0.8284626014287824</v>
+        <v>0.8832386620624106</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.09148077931165588</v>
+        <v>0.01170814647133844</v>
       </c>
       <c r="F3">
-        <v>5.825968998556448</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0007741856701751022</v>
+        <v>0.0008101640326824403</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>2.405855808269038</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.07133681290490923</v>
+        <v>0.3462578305671826</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>1.784118735314564</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.844901586962294</v>
+        <v>4.832507496898927</v>
       </c>
       <c r="C4">
-        <v>0.7411129249582302</v>
+        <v>0.7935672869850237</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.08107258110075932</v>
+        <v>0.01165604983326241</v>
       </c>
       <c r="F4">
-        <v>5.245901463913498</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0007832118399719558</v>
+        <v>0.0008183604993228832</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>2.173942249478259</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.06188456800052933</v>
+        <v>0.3167794066314258</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>1.776912938348147</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.713608584664996</v>
+        <v>4.639556746349797</v>
       </c>
       <c r="C5">
-        <v>0.7062132464816102</v>
+        <v>0.7575786109755995</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.07699591262303684</v>
+        <v>0.01163715836254275</v>
       </c>
       <c r="F5">
-        <v>5.014316954434605</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.0007869153747848652</v>
+        <v>0.000821739940300277</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>2.081549122439469</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.05823395309303869</v>
+        <v>0.3049809104564503</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>1.774695641846023</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.691959806136936</v>
+        <v>4.607704087501872</v>
       </c>
       <c r="C6">
-        <v>0.7004561653381529</v>
+        <v>0.7516332246289608</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.07632786855277374</v>
+        <v>0.01163415529936418</v>
       </c>
       <c r="F6">
-        <v>4.976123900597912</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.0007875321008403503</v>
+        <v>0.0008223035980739539</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>2.06632195110133</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.05763862917446705</v>
+        <v>0.3030338004384845</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>1.774368749977697</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.843120395596145</v>
+        <v>4.829892460708265</v>
       </c>
       <c r="C7">
-        <v>0.7406396238438333</v>
+        <v>0.7930798243599213</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.08101698380765399</v>
+        <v>0.0116557859274542</v>
       </c>
       <c r="F7">
-        <v>5.242760113776683</v>
+        <v>1.139311062524627</v>
       </c>
       <c r="G7">
-        <v>0.0007832616742157752</v>
+        <v>0.0008184059105421151</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>2.172688244414076</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.06183457949384419</v>
+        <v>0.3166194626082586</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>1.776880221552545</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.535993656691119</v>
+        <v>5.841172982131013</v>
       </c>
       <c r="C8">
-        <v>0.9244794679478616</v>
+        <v>0.9811166291335951</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1032646390892467</v>
+        <v>0.01177250824890597</v>
       </c>
       <c r="F8">
-        <v>6.46435406840709</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0007646162793935848</v>
+        <v>0.0008015387056208887</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>2.661931324395511</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.08225056171901279</v>
+        <v>0.3785405143372031</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>1.794487008635883</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.03254219799328</v>
+        <v>7.977032582760103</v>
       </c>
       <c r="C9">
-        <v>1.320578926048597</v>
+        <v>1.376453927368402</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1558336597894865</v>
+        <v>0.01209973948529197</v>
       </c>
       <c r="F9">
-        <v>9.107297967190704</v>
+        <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0.0007280850809964791</v>
+        <v>0.0007692986538253847</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>3.73230059137336</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1332418892904812</v>
+        <v>0.5095909815451165</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>1.858418934055948</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.27592727116064</v>
+        <v>9.689410025445</v>
       </c>
       <c r="C10">
-        <v>1.649487971708652</v>
+        <v>1.692859612223515</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.2046493696779059</v>
+        <v>0.0124282736650998</v>
       </c>
       <c r="F10">
-        <v>11.31524462262274</v>
+        <v>2.275587181990971</v>
       </c>
       <c r="G10">
-        <v>0.0007003593065699754</v>
+        <v>0.0007456970339846701</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.640035219935811</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.1833053256800374</v>
+        <v>0.6147572550924281</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>1.930400334187823</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.892776921632333</v>
+        <v>10.51396926686095</v>
       </c>
       <c r="C11">
-        <v>1.812753050310846</v>
+        <v>1.845272833358536</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.2307637590947849</v>
+        <v>0.01260570070149591</v>
       </c>
       <c r="F11">
-        <v>12.41650927638176</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0006872519323486843</v>
+        <v>0.0007348562491991848</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.0976748740174</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2109558159414755</v>
+        <v>0.6653974124959205</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>1.970628972685716</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.136210020639169</v>
+        <v>10.83432063959685</v>
       </c>
       <c r="C12">
-        <v>1.87721166064</v>
+        <v>1.904514318591396</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.2414376469048172</v>
+        <v>0.01267792766012299</v>
       </c>
       <c r="F12">
-        <v>12.85237199864503</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.0006821798404025398</v>
+        <v>0.0007307230121632155</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.279729918327831</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2224115569697798</v>
+        <v>0.685069126049541</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>1.987160183779054</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.083294297916154</v>
+        <v>10.76493788559333</v>
       </c>
       <c r="C13">
-        <v>1.863198616235138</v>
+        <v>1.891682047137124</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.2390992683192081</v>
+        <v>0.01266212871605976</v>
       </c>
       <c r="F13">
-        <v>12.75756324706595</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.0006832777958032388</v>
+        <v>0.0007316146686894858</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.240083960640874</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2198945988638767</v>
+        <v>0.6808087252724562</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>1.983538089726778</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.912589300619572</v>
+        <v>10.54015204788743</v>
       </c>
       <c r="C14">
-        <v>1.817998522068251</v>
+        <v>1.85011406152347</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.2316245377981829</v>
+        <v>0.01261153496654455</v>
       </c>
       <c r="F14">
-        <v>12.45195515494521</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.0006868370925731234</v>
+        <v>0.000734516853875235</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.112460355862623</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2118764531031232</v>
+        <v>0.6670052789236252</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>1.971961545742118</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.809399672695065</v>
+        <v>10.40357252712033</v>
       </c>
       <c r="C15">
-        <v>1.790679514894407</v>
+        <v>1.82486155001709</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.2271565731762557</v>
+        <v>0.01258123632909447</v>
       </c>
       <c r="F15">
-        <v>12.267393818556</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0006890017600081837</v>
+        <v>0.0007362904306185136</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.03551291689476</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2071039951725364</v>
+        <v>0.6586179040616287</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>1.96504700936768</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.236837010028069</v>
+        <v>9.636565311875074</v>
       </c>
       <c r="C16">
-        <v>1.639144634710249</v>
+        <v>1.683094266209821</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.2030383391323163</v>
+        <v>0.01241732173975718</v>
       </c>
       <c r="F16">
-        <v>11.24560132219779</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007012030549752313</v>
+        <v>0.0007464023555204138</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.61120581390432</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1816179940653138</v>
+        <v>0.6115116003726939</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>1.927939673381672</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.900204377541741</v>
+        <v>9.178706127319515</v>
       </c>
       <c r="C17">
-        <v>1.550082370224743</v>
+        <v>1.598492832622469</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1893747786376743</v>
+        <v>0.01232456744863009</v>
       </c>
       <c r="F17">
-        <v>10.64651733181461</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.0007085388431546583</v>
+        <v>0.00075257057817246</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.363749112331732</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.167398795886923</v>
+        <v>0.5833901823538952</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>1.907234539942493</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.711214650658746</v>
+        <v>8.919537913766931</v>
       </c>
       <c r="C18">
-        <v>1.500088909928536</v>
+        <v>1.550608403174124</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1818662643349143</v>
+        <v>0.01227377576475241</v>
       </c>
       <c r="F18">
-        <v>10.31067992824106</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007127144854488746</v>
+        <v>0.0007561094930275871</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.225447209223631</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1596570303344089</v>
+        <v>0.567472373831265</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>1.896014106877345</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.647960081128815</v>
+        <v>8.832464223919146</v>
       </c>
       <c r="C19">
-        <v>1.483357044931267</v>
+        <v>1.534520631665316</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1793788268008996</v>
+        <v>0.01225699146698833</v>
       </c>
       <c r="F19">
-        <v>10.19835126473725</v>
+        <v>2.087706772602957</v>
       </c>
       <c r="G19">
-        <v>0.0007141217084818066</v>
+        <v>0.0007573065347682432</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.179255377412176</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.1571040055298338</v>
+        <v>0.5621244974632447</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>1.892327383331434</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.935544947588312</v>
+        <v>9.227003242186697</v>
       </c>
       <c r="C20">
-        <v>1.559431516532015</v>
+        <v>1.607416482788381</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1907916988819238</v>
+        <v>0.01233417008728765</v>
       </c>
       <c r="F20">
-        <v>10.70935656970568</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007077626884500308</v>
+        <v>0.0007519149651249458</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.389660305062364</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1688655727776842</v>
+        <v>0.5863565617171957</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>1.909365924373731</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.96243766900983</v>
+        <v>10.60594282140289</v>
       </c>
       <c r="C21">
-        <v>1.8311967351259</v>
+        <v>1.862279358262697</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.2337964654810492</v>
+        <v>0.01262624921492272</v>
       </c>
       <c r="F21">
-        <v>12.54115931024916</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0006857949608899884</v>
+        <v>0.0007336652929236623</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.149685464841497</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2142019313592289</v>
+        <v>0.6710453934900045</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>1.975324617443647</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.692927509627225</v>
+        <v>11.55543328966212</v>
       </c>
       <c r="C22">
-        <v>2.024695596352728</v>
+        <v>2.037942217321358</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.2666667817508284</v>
+        <v>0.01284722373868075</v>
       </c>
       <c r="F22">
-        <v>13.85211108598753</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>0.0006707748764220716</v>
+        <v>0.0007215659835629777</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.699344015735363</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2498159680976642</v>
+        <v>0.729342019740244</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>2.026139406592648</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.296517276416921</v>
+        <v>11.04364004420279</v>
       </c>
       <c r="C23">
-        <v>1.91966925809686</v>
+        <v>1.943233366190611</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.2485841083026834</v>
+        <v>0.01272611260344636</v>
       </c>
       <c r="F23">
-        <v>13.13981649982367</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.0006788687243882561</v>
+        <v>0.0007280445356756501</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.400085140839138</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2301285716143067</v>
+        <v>0.6979216308150882</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>1.99822565544892</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.919553492150044</v>
+        <v>9.205155579219763</v>
       </c>
       <c r="C24">
-        <v>1.555201046533625</v>
+        <v>1.603379773939139</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1901500441800756</v>
+        <v>0.01232982091408119</v>
       </c>
       <c r="F24">
-        <v>10.6809205535825</v>
+        <v>2.170038921573038</v>
       </c>
       <c r="G24">
-        <v>0.0007081137151439473</v>
+        <v>0.000752211389490013</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.377933668187154</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1682011135645212</v>
+        <v>0.5850146909652665</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>1.908400213367003</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.607707952280123</v>
+        <v>7.378257591633428</v>
       </c>
       <c r="C25">
-        <v>1.208200435307674</v>
+        <v>1.265762011550066</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1402535961989848</v>
+        <v>0.01199817897240796</v>
       </c>
       <c r="F25">
-        <v>8.355816580872215</v>
+        <v>1.757113814925404</v>
       </c>
       <c r="G25">
-        <v>0.0007380434349339993</v>
+        <v>0.0007779701596366039</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,15 +1526,21 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>3.426219940282323</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1177761970740363</v>
+        <v>0.4728293309013907</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>1.837322698006375</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_6/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6.123959448473329</v>
+        <v>3.090146085688275</v>
       </c>
       <c r="C2">
-        <v>1.033563828532692</v>
+        <v>1.060440107170194</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.01180996007227675</v>
+        <v>1.475193524875934</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.0007970384078077546</v>
+        <v>0.8036603040999353</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.4318133311710284</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.2654807541117847</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3958751923339463</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.80102745677685</v>
+        <v>0.444945191905866</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>5.314194353174571</v>
+        <v>2.675460294089078</v>
       </c>
       <c r="C3">
-        <v>0.8832386620624106</v>
+        <v>0.9190573475949009</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.01170814647133844</v>
+        <v>1.261377775660463</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.0008101640326824403</v>
+        <v>0.6973888084778253</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.3913663421923417</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.2451190523396036</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3462578305671826</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.784118735314564</v>
+        <v>0.4726914587216768</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.832507496898927</v>
+        <v>2.423007019991701</v>
       </c>
       <c r="C4">
-        <v>0.7935672869850237</v>
+        <v>0.833228847899818</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.01165604983326241</v>
+        <v>1.133372645055871</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.0008183604993228832</v>
+        <v>0.6350183444919395</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.3680793651449221</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.2339843995092252</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3167794066314258</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.776912938348147</v>
+        <v>0.4908362261144532</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4.639556746349797</v>
+        <v>2.320570169112557</v>
       </c>
       <c r="C5">
-        <v>0.7575786109755995</v>
+        <v>0.798452458732072</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01163715836254275</v>
+        <v>1.081901527985721</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.000821739940300277</v>
+        <v>0.6102415038236302</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.3589400653056174</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.2297581199805627</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3049809104564503</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.774695641846023</v>
+        <v>0.4984964372172627</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4.607704087501872</v>
+        <v>2.303584300365799</v>
       </c>
       <c r="C6">
-        <v>0.7516332246289608</v>
+        <v>0.792688613737198</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01163415529936418</v>
+        <v>1.073392979182316</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.0008223035980739539</v>
+        <v>0.606163625738489</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.3574425807220649</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2290742419823104</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3030338004384845</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.774368749977697</v>
+        <v>0.4997841295618031</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.829892460708265</v>
+        <v>2.421623870939527</v>
       </c>
       <c r="C7">
-        <v>0.7930798243599213</v>
+        <v>0.8327590931056932</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.0116557859274542</v>
+        <v>1.132675850391308</v>
       </c>
       <c r="F7">
-        <v>1.139311062524627</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.0008184059105421151</v>
+        <v>0.6346817120153077</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.3679547396764633</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.2339261836001718</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3166194626082586</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.776880221552545</v>
+        <v>0.4909384730353885</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>5.841172982131013</v>
+        <v>2.946646782934124</v>
       </c>
       <c r="C8">
-        <v>0.9811166291335951</v>
+        <v>1.011457735200594</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.01177250824890597</v>
+        <v>1.400704985255487</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.0008015387056208887</v>
+        <v>0.7663665221827358</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.4175214870766837</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.2581556066520676</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3785405143372031</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.794487008635883</v>
+        <v>0.4542740904743852</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.977032582760103</v>
+        <v>3.99872499965312</v>
       </c>
       <c r="C9">
-        <v>1.376453927368402</v>
+        <v>1.372086623850464</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.01209973948529197</v>
+        <v>1.959180134132609</v>
       </c>
       <c r="F9">
         <v>1.895061171845313</v>
       </c>
       <c r="G9">
-        <v>0.0007692986538253847</v>
+        <v>1.051735286654008</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.5289614561738034</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.3181635744604492</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5095909815451165</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.858418934055948</v>
+        <v>0.3917999564374242</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.689410025445</v>
+        <v>4.793915008180704</v>
       </c>
       <c r="C10">
-        <v>1.692859612223515</v>
+        <v>1.647141593268373</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0124282736650998</v>
+        <v>2.40074550374618</v>
       </c>
       <c r="F10">
-        <v>2.275587181990971</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.0007456970339846701</v>
+        <v>1.284725120997877</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.6226248797349001</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.3724635720092309</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6147572550924281</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.930400334187823</v>
+        <v>0.3526258589313258</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.51396926686095</v>
+        <v>5.162744197336167</v>
       </c>
       <c r="C11">
-        <v>1.845272833358536</v>
+        <v>1.775503347603546</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.01260570070149591</v>
+        <v>2.611502909558538</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.0007348562491991848</v>
+        <v>1.397579160204174</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.6686161461655047</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.4000668617868683</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6653974124959205</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.970628972685716</v>
+        <v>0.3365187138122963</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.83432063959685</v>
+        <v>5.303651436329289</v>
       </c>
       <c r="C12">
-        <v>1.904514318591396</v>
+        <v>1.824679650965891</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.01267792766012299</v>
+        <v>2.693050172433672</v>
       </c>
       <c r="F12">
-        <v>2.518780942186368</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.0007307230121632155</v>
+        <v>1.441479061946239</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.6865996798450738</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.4110042810972914</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.685069126049541</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.987160183779054</v>
+        <v>0.3306904943820825</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.76493788559333</v>
+        <v>5.273245537994342</v>
       </c>
       <c r="C13">
-        <v>1.891682047137124</v>
+        <v>1.814061547224981</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.01266212871605976</v>
+        <v>2.675404527102287</v>
       </c>
       <c r="F13">
         <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.0007316146686894858</v>
+        <v>1.431969515705816</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.6826999285795239</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.4086259722458436</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6808087252724562</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.983538089726778</v>
+        <v>0.3319332115607452</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.54015204788743</v>
+        <v>5.174310495236568</v>
       </c>
       <c r="C14">
-        <v>1.85011406152347</v>
+        <v>1.779537067823014</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.01261153496654455</v>
+        <v>2.618174993867129</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.000734516853875235</v>
+        <v>1.401166377598287</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.6700837757090312</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.4009565537381263</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6670052789236252</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.971961545742118</v>
+        <v>0.336033632898932</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.40357252712033</v>
+        <v>5.113878465947892</v>
       </c>
       <c r="C15">
-        <v>1.82486155001709</v>
+        <v>1.758467205564159</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.01258123632909447</v>
+        <v>2.583356995242113</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.0007362904306185136</v>
+        <v>1.382455956576109</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.6624325654282472</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.3963241050746689</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6586179040616287</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.96504700936768</v>
+        <v>0.3385813733564262</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.636565311875074</v>
+        <v>4.769971901782981</v>
       </c>
       <c r="C16">
-        <v>1.683094266209821</v>
+        <v>1.638826424721458</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.01241732173975718</v>
+        <v>2.387196686397374</v>
       </c>
       <c r="F16">
         <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>0.0007464023555204138</v>
+        <v>1.277502536612388</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.6196939770284189</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.3707235556480128</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6115116003726939</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.927939673381672</v>
+        <v>0.3537150228381165</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.178706127319515</v>
+        <v>4.560959088998118</v>
       </c>
       <c r="C17">
-        <v>1.598492832622469</v>
+        <v>1.56632810267115</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.01232456744863009</v>
+        <v>2.269598310397413</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.00075257057817246</v>
+        <v>1.214993282757774</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.5943957031160494</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.3558065322968318</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5833901823538952</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.907234539942493</v>
+        <v>0.3634544999765481</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.919537913766931</v>
+        <v>4.441393139634329</v>
       </c>
       <c r="C18">
-        <v>1.550608403174124</v>
+        <v>1.524926698697357</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.01227377576475241</v>
+        <v>2.202867452845439</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.0007561094930275871</v>
+        <v>1.179673781845963</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.5801577337092283</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.3474952232162209</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.567472373831265</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.896014106877345</v>
+        <v>0.3692159899450829</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.832464223919146</v>
+        <v>4.401016107863825</v>
       </c>
       <c r="C19">
-        <v>1.534520631665316</v>
+        <v>1.510957156620634</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.01225699146698833</v>
+        <v>2.180420873588758</v>
       </c>
       <c r="F19">
-        <v>2.087706772602957</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.0007573065347682432</v>
+        <v>1.167819157843951</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.5753884736187729</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.3447253925136806</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5621244974632447</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.892327383331434</v>
+        <v>0.37119343959791</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.227003242186697</v>
+        <v>4.583139824083844</v>
       </c>
       <c r="C20">
-        <v>1.607416482788381</v>
+        <v>1.574014167891676</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.01233417008728765</v>
+        <v>2.282020712813647</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.0007519149651249458</v>
+        <v>1.221580667809974</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.5970558123015337</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.3573662232403052</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5863565617171957</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.909365924373731</v>
+        <v>0.3624010286712434</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.60594282140289</v>
+        <v>5.20333454987491</v>
       </c>
       <c r="C21">
-        <v>1.862279358262697</v>
+        <v>1.789661410433723</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.01262624921492272</v>
+        <v>2.634934706707369</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.0007336652929236623</v>
+        <v>1.410180849216829</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.673773329966366</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.4031955059302632</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6710453934900045</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.975324617443647</v>
+        <v>0.3348216644116064</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.55543328966212</v>
+        <v>5.616021459812487</v>
       </c>
       <c r="C22">
-        <v>2.037942217321358</v>
+        <v>1.933973788153878</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.01284722373868075</v>
+        <v>2.875907855004016</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>2.667416158031997</v>
       </c>
       <c r="G22">
-        <v>0.0007215659835629777</v>
+        <v>1.54033333989301</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.7272686932516024</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.4360117144084441</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.729342019740244</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.026139406592648</v>
+        <v>0.3183918645851023</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.04364004420279</v>
+        <v>5.395007849820956</v>
       </c>
       <c r="C23">
-        <v>1.943233366190611</v>
+        <v>1.856604141234016</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.01272611260344636</v>
+        <v>2.746230430621708</v>
       </c>
       <c r="F23">
-        <v>2.562285531758789</v>
+        <v>2.562285531758803</v>
       </c>
       <c r="G23">
-        <v>0.0007280445356756501</v>
+        <v>1.470171771881326</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.6983798566938617</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.4182099345191617</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6979216308150882</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.99822565544892</v>
+        <v>0.3270056962165668</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.205155579219763</v>
+        <v>4.57311006629817</v>
       </c>
       <c r="C24">
-        <v>1.603379773939139</v>
+        <v>1.570538436793981</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.01232982091408119</v>
+        <v>2.27640183287707</v>
       </c>
       <c r="F24">
-        <v>2.170038921573038</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.000752211389490013</v>
+        <v>1.218600599417698</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.5958522287034498</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.3566602674788157</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5850146909652665</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.908400213367003</v>
+        <v>0.3628767998733551</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.378257591633428</v>
+        <v>3.710887878749531</v>
       </c>
       <c r="C25">
-        <v>1.265762011550066</v>
+        <v>1.273065862823046</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.01199817897240796</v>
+        <v>1.803525463841012</v>
       </c>
       <c r="F25">
-        <v>1.757113814925404</v>
+        <v>1.757113814925063</v>
       </c>
       <c r="G25">
-        <v>0.0007779701596366039</v>
+        <v>0.9709824609570035</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.4969927934912306</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.3003440170954619</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.4728293309013907</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.837322698006375</v>
+        <v>0.4075976356524578</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_6/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.090146085688275</v>
+        <v>0.9533899455498158</v>
       </c>
       <c r="C2">
-        <v>1.060440107170194</v>
+        <v>0.3259424990483808</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.475193524875934</v>
+        <v>0.4267040067144734</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.8036603040999353</v>
+        <v>0.4109261604107246</v>
       </c>
       <c r="H2">
-        <v>0.4318133311710284</v>
+        <v>0.4822788916466294</v>
       </c>
       <c r="I2">
-        <v>0.2654807541117847</v>
+        <v>0.31806365448832</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.444945191905866</v>
+        <v>0.7586558342111829</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.675460294089078</v>
+        <v>0.8334091467887674</v>
       </c>
       <c r="C3">
-        <v>0.9190573475949009</v>
+        <v>0.2849640400723956</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.261377775660463</v>
+        <v>0.3719729806084615</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.6973888084778253</v>
+        <v>0.3895634224847981</v>
       </c>
       <c r="H3">
-        <v>0.3913663421923417</v>
+        <v>0.4782466569400725</v>
       </c>
       <c r="I3">
-        <v>0.2451190523396036</v>
+        <v>0.3181310253427299</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4726914587216768</v>
+        <v>0.7690097287870827</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.423007019991701</v>
+        <v>0.7597119079631511</v>
       </c>
       <c r="C4">
-        <v>0.833228847899818</v>
+        <v>0.2597287555325067</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.133372645055871</v>
+        <v>0.3384851556841113</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.6350183444919395</v>
+        <v>0.3769362205838576</v>
       </c>
       <c r="H4">
-        <v>0.3680793651449221</v>
+        <v>0.4762017668437863</v>
       </c>
       <c r="I4">
-        <v>0.2339843995092252</v>
+        <v>0.3185309183831535</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4908362261144532</v>
+        <v>0.7757946210837972</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.320570169112557</v>
+        <v>0.7296721372314323</v>
       </c>
       <c r="C5">
-        <v>0.798452458732072</v>
+        <v>0.2494259333199977</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.081901527985721</v>
+        <v>0.3248655487302443</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.6102415038236302</v>
+        <v>0.3719118374879713</v>
       </c>
       <c r="H5">
-        <v>0.3589400653056174</v>
+        <v>0.4754760975210814</v>
       </c>
       <c r="I5">
-        <v>0.2297581199805627</v>
+        <v>0.3187833067333798</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4984964372172627</v>
+        <v>0.778666944632711</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.303584300365799</v>
+        <v>0.7246835901765962</v>
       </c>
       <c r="C6">
-        <v>0.792688613737198</v>
+        <v>0.2477139798770622</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.073392979182316</v>
+        <v>0.3226055778975478</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.606163625738489</v>
+        <v>0.3710848162166087</v>
       </c>
       <c r="H6">
-        <v>0.3574425807220649</v>
+        <v>0.4753620809878925</v>
       </c>
       <c r="I6">
-        <v>0.2290742419823104</v>
+        <v>0.318830595740021</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4997841295618031</v>
+        <v>0.7791503775315221</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.421623870939527</v>
+        <v>0.7593068121356055</v>
       </c>
       <c r="C7">
-        <v>0.8327590931056932</v>
+        <v>0.2595898866708239</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.132675850391308</v>
+        <v>0.3383013710676437</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.6346817120153077</v>
+        <v>0.3768679712327412</v>
       </c>
       <c r="H7">
-        <v>0.3679547396764633</v>
+        <v>0.4761915453390628</v>
       </c>
       <c r="I7">
-        <v>0.2339261836001718</v>
+        <v>0.3185339610517346</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.4909384730353885</v>
+        <v>0.775832923406746</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.946646782934124</v>
+        <v>0.9120262241463024</v>
       </c>
       <c r="C8">
-        <v>1.011457735200594</v>
+        <v>0.3118282149498555</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.400704985255487</v>
+        <v>0.4078068699088391</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.7663665221827358</v>
+        <v>0.403457570627026</v>
       </c>
       <c r="H8">
-        <v>0.4175214870766837</v>
+        <v>0.4807987034883041</v>
       </c>
       <c r="I8">
-        <v>0.2581556066520676</v>
+        <v>0.3180120325488929</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.4542740904743852</v>
+        <v>0.7621370623436476</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.99872499965312</v>
+        <v>1.211314811976479</v>
       </c>
       <c r="C9">
-        <v>1.372086623850464</v>
+        <v>0.413707161319735</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.959180134132609</v>
+        <v>0.5451582370615995</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>1.051735286654008</v>
+        <v>0.4595694294094699</v>
       </c>
       <c r="H9">
-        <v>0.5289614561738034</v>
+        <v>0.4932862672492178</v>
       </c>
       <c r="I9">
-        <v>0.3181635744604492</v>
+        <v>0.3198666402156221</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.3917999564374242</v>
+        <v>0.7386761574914971</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.793915008180704</v>
+        <v>1.431152623251364</v>
       </c>
       <c r="C10">
-        <v>1.647141593268373</v>
+        <v>0.4882644680061503</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.40074550374618</v>
+        <v>0.6468887751503019</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>1.284725120997877</v>
+        <v>0.5033371460364435</v>
       </c>
       <c r="H10">
-        <v>0.6226248797349001</v>
+        <v>0.5046147284691642</v>
       </c>
       <c r="I10">
-        <v>0.3724635720092309</v>
+        <v>0.3230308661722958</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.3526258589313258</v>
+        <v>0.7235160879941915</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.162744197336167</v>
+        <v>1.53116837481997</v>
       </c>
       <c r="C11">
-        <v>1.775503347603546</v>
+        <v>0.5221298938004111</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.611502909558538</v>
+        <v>0.6933857715410454</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>1.397579160204174</v>
+        <v>0.5238271074569241</v>
       </c>
       <c r="H11">
-        <v>0.6686161461655047</v>
+        <v>0.5102468048190758</v>
       </c>
       <c r="I11">
-        <v>0.4000668617868683</v>
+        <v>0.3248718562756352</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.3365187138122963</v>
+        <v>0.7170717744467368</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.303651436329289</v>
+        <v>1.569044134532078</v>
       </c>
       <c r="C12">
-        <v>1.824679650965891</v>
+        <v>0.5349472630044829</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.693050172433672</v>
+        <v>0.711027571260459</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>1.441479061946239</v>
+        <v>0.5316716139712128</v>
       </c>
       <c r="H12">
-        <v>0.6865996798450738</v>
+        <v>0.5124492182878555</v>
       </c>
       <c r="I12">
-        <v>0.4110042810972914</v>
+        <v>0.3256275713761099</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.3306904943820825</v>
+        <v>0.7146966385333826</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.273245537994342</v>
+        <v>1.560886816836955</v>
       </c>
       <c r="C13">
-        <v>1.814061547224981</v>
+        <v>0.5321871027758789</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.675404527102287</v>
+        <v>0.7072265181229511</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>1.431969515705816</v>
+        <v>0.5299783283257682</v>
       </c>
       <c r="H13">
-        <v>0.6826999285795239</v>
+        <v>0.511971777267604</v>
       </c>
       <c r="I13">
-        <v>0.4086259722458436</v>
+        <v>0.3254621963402613</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.3319332115607452</v>
+        <v>0.715205264464899</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.174310495236568</v>
+        <v>1.534284394200313</v>
       </c>
       <c r="C14">
-        <v>1.779537067823014</v>
+        <v>0.5231845178610683</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.618174993867129</v>
+        <v>0.6948364670813021</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>1.401166377598287</v>
+        <v>0.5244707564452824</v>
       </c>
       <c r="H14">
-        <v>0.6700837757090312</v>
+        <v>0.5104265976436011</v>
       </c>
       <c r="I14">
-        <v>0.4009565537381263</v>
+        <v>0.3249328507738127</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.336033632898932</v>
+        <v>0.7168750631162837</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.113878465947892</v>
+        <v>1.51798991249774</v>
       </c>
       <c r="C15">
-        <v>1.758467205564159</v>
+        <v>0.5176693162447918</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.583356995242113</v>
+        <v>0.6872517683494976</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>1.382455956576109</v>
+        <v>0.5211083921197428</v>
       </c>
       <c r="H15">
-        <v>0.6624325654282472</v>
+        <v>0.5094892282412502</v>
       </c>
       <c r="I15">
-        <v>0.3963241050746689</v>
+        <v>0.3246162638296539</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.3385813733564262</v>
+        <v>0.7179063575428373</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.769971901782981</v>
+        <v>1.424616607600001</v>
       </c>
       <c r="C16">
-        <v>1.638826424721458</v>
+        <v>0.4860503070864866</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.387196686397374</v>
+        <v>0.6438547432163944</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>1.277502536612388</v>
+        <v>0.5020099189098914</v>
       </c>
       <c r="H16">
-        <v>0.6196939770284189</v>
+        <v>0.5042563626028027</v>
       </c>
       <c r="I16">
-        <v>0.3707235556480128</v>
+        <v>0.3229187042369475</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.3537150228381165</v>
+        <v>0.7239463509638142</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.560959088998118</v>
+        <v>1.367338101735243</v>
       </c>
       <c r="C17">
-        <v>1.56632810267115</v>
+        <v>0.4666404198898135</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.269598310397413</v>
+        <v>0.6172902577191763</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>1.214993282757774</v>
+        <v>0.4904435628485544</v>
       </c>
       <c r="H17">
-        <v>0.5943957031160494</v>
+        <v>0.5011693646611945</v>
       </c>
       <c r="I17">
-        <v>0.3558065322968318</v>
+        <v>0.3219807435990987</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.3634544999765481</v>
+        <v>0.727767602622535</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.441393139634329</v>
+        <v>1.334393971900738</v>
       </c>
       <c r="C18">
-        <v>1.524926698697357</v>
+        <v>0.4554715221086667</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.202867452845439</v>
+        <v>0.6020315322712548</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>1.179673781845963</v>
+        <v>0.4838453525832165</v>
       </c>
       <c r="H18">
-        <v>0.5801577337092283</v>
+        <v>0.4994388125163027</v>
       </c>
       <c r="I18">
-        <v>0.3474952232162209</v>
+        <v>0.3214790009950192</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.3692159899450829</v>
+        <v>0.7300080260488784</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.401016107863825</v>
+        <v>1.323239805403432</v>
       </c>
       <c r="C19">
-        <v>1.510957156620634</v>
+        <v>0.4516890748801643</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.180420873588758</v>
+        <v>0.5968686181586946</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>1.167819157843951</v>
+        <v>0.4816206026700911</v>
       </c>
       <c r="H19">
-        <v>0.5753884736187729</v>
+        <v>0.498860582185074</v>
       </c>
       <c r="I19">
-        <v>0.3447253925136806</v>
+        <v>0.321315577668102</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.37119343959791</v>
+        <v>0.7307738960418462</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.583139824083844</v>
+        <v>1.373435394670594</v>
       </c>
       <c r="C20">
-        <v>1.574014167891676</v>
+        <v>0.4687071324569274</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.282020712813647</v>
+        <v>0.620115953929627</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>1.221580667809974</v>
+        <v>0.4916691710266718</v>
       </c>
       <c r="H20">
-        <v>0.5970558123015337</v>
+        <v>0.5014933167934146</v>
       </c>
       <c r="I20">
-        <v>0.3573662232403052</v>
+        <v>0.3220766784301006</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.3624010286712434</v>
+        <v>0.7273564198430762</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.20333454987491</v>
+        <v>1.542098113377335</v>
       </c>
       <c r="C21">
-        <v>1.789661410433723</v>
+        <v>0.5258289730597312</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.634934706707369</v>
+        <v>0.6984747688324688</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>1.410180849216829</v>
+        <v>0.526086129746858</v>
       </c>
       <c r="H21">
-        <v>0.673773329966366</v>
+        <v>0.5108785568960741</v>
       </c>
       <c r="I21">
-        <v>0.4031955059302632</v>
+        <v>0.3250867361363987</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.3348216644116064</v>
+        <v>0.7163828321909165</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.616021459812487</v>
+        <v>1.65234064377313</v>
       </c>
       <c r="C22">
-        <v>1.933973788153878</v>
+        <v>0.5631224488782891</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.875907855004016</v>
+        <v>0.7498886359077233</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>1.54033333989301</v>
+        <v>0.549078350218366</v>
       </c>
       <c r="H22">
-        <v>0.7272686932516024</v>
+        <v>0.5174188277969449</v>
       </c>
       <c r="I22">
-        <v>0.4360117144084441</v>
+        <v>0.3273957754534251</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.3183918645851023</v>
+        <v>0.7095909998831402</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.395007849820956</v>
+        <v>1.593500898437185</v>
       </c>
       <c r="C23">
-        <v>1.856604141234016</v>
+        <v>0.54322157737613</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.746230430621708</v>
+        <v>0.7224286587173765</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307915566</v>
       </c>
       <c r="G23">
-        <v>1.470171771881326</v>
+        <v>0.5367606587933551</v>
       </c>
       <c r="H23">
-        <v>0.6983798566938617</v>
+        <v>0.5138906922905733</v>
       </c>
       <c r="I23">
-        <v>0.4182099345191617</v>
+        <v>0.3261318482902169</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.3270056962165668</v>
+        <v>0.7131810936820742</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.57311006629817</v>
+        <v>1.370678852040953</v>
       </c>
       <c r="C24">
-        <v>1.570538436793981</v>
+        <v>0.4677728025829992</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.27640183287707</v>
+        <v>0.6188384147109218</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902313</v>
       </c>
       <c r="G24">
-        <v>1.218600599417698</v>
+        <v>0.4911149134891843</v>
       </c>
       <c r="H24">
-        <v>0.5958522287034498</v>
+        <v>0.5013467204015001</v>
       </c>
       <c r="I24">
-        <v>0.3566602674788157</v>
+        <v>0.3220331895336273</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.3628767998733551</v>
+        <v>0.727542179977732</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.710887878749531</v>
+        <v>1.130363077931634</v>
       </c>
       <c r="C25">
-        <v>1.273065862823046</v>
+        <v>0.3862012304670088</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.803525463841012</v>
+        <v>0.5078702979538718</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347308</v>
       </c>
       <c r="G25">
-        <v>0.9709824609570035</v>
+        <v>0.4439521252485861</v>
       </c>
       <c r="H25">
-        <v>0.4969927934912306</v>
+        <v>0.4895333749679338</v>
       </c>
       <c r="I25">
-        <v>0.3003440170954619</v>
+        <v>0.3190519590955603</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.4075976356524578</v>
+        <v>0.7446587381997105</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_6/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.9533899455498158</v>
+        <v>3.090146085688332</v>
       </c>
       <c r="C2">
-        <v>0.3259424990483808</v>
+        <v>1.060440107170393</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4267040067144734</v>
+        <v>1.475193524875948</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.4109261604107246</v>
+        <v>0.8036603040999211</v>
       </c>
       <c r="H2">
-        <v>0.4822788916466294</v>
+        <v>0.4318133311709147</v>
       </c>
       <c r="I2">
-        <v>0.31806365448832</v>
+        <v>0.2654807541117918</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7586558342111829</v>
+        <v>0.4449451919059157</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8334091467887674</v>
+        <v>2.675460294089135</v>
       </c>
       <c r="C3">
-        <v>0.2849640400723956</v>
+        <v>0.9190573475949009</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3719729806084615</v>
+        <v>1.261377775660435</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.3895634224847981</v>
+        <v>0.697388808477811</v>
       </c>
       <c r="H3">
-        <v>0.4782466569400725</v>
+        <v>0.3913663421924554</v>
       </c>
       <c r="I3">
-        <v>0.3181310253427299</v>
+        <v>0.2451190523395965</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7690097287870827</v>
+        <v>0.4726914587216768</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7597119079631511</v>
+        <v>2.423007019991417</v>
       </c>
       <c r="C4">
-        <v>0.2597287555325067</v>
+        <v>0.8332288478997327</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3384851556841113</v>
+        <v>1.133372645055815</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.3769362205838576</v>
+        <v>0.6350183444919537</v>
       </c>
       <c r="H4">
-        <v>0.4762017668437863</v>
+        <v>0.3680793651448084</v>
       </c>
       <c r="I4">
-        <v>0.3185309183831535</v>
+        <v>0.2339843995092217</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7757946210837972</v>
+        <v>0.4908362261144426</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7296721372314323</v>
+        <v>2.320570169112671</v>
       </c>
       <c r="C5">
-        <v>0.2494259333199977</v>
+        <v>0.7984524587321005</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3248655487302443</v>
+        <v>1.081901527985707</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.3719118374879713</v>
+        <v>0.6102415038236728</v>
       </c>
       <c r="H5">
-        <v>0.4754760975210814</v>
+        <v>0.3589400653056174</v>
       </c>
       <c r="I5">
-        <v>0.3187833067333798</v>
+        <v>0.2297581199805734</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.778666944632711</v>
+        <v>0.4984964372173053</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7246835901765962</v>
+        <v>2.303584300365799</v>
       </c>
       <c r="C6">
-        <v>0.2477139798770622</v>
+        <v>0.792688613737198</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3226055778975478</v>
+        <v>1.073392979182302</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.3710848162166087</v>
+        <v>0.6061636257384606</v>
       </c>
       <c r="H6">
-        <v>0.4753620809878925</v>
+        <v>0.3574425807220649</v>
       </c>
       <c r="I6">
-        <v>0.318830595740021</v>
+        <v>0.2290742419822962</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7791503775315221</v>
+        <v>0.4997841295618457</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7593068121356055</v>
+        <v>2.421623870939356</v>
       </c>
       <c r="C7">
-        <v>0.2595898866708239</v>
+        <v>0.8327590931055795</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3383013710676437</v>
+        <v>1.132675850391337</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.3768679712327412</v>
+        <v>0.6346817120153361</v>
       </c>
       <c r="H7">
-        <v>0.4761915453390628</v>
+        <v>0.3679547396764633</v>
       </c>
       <c r="I7">
-        <v>0.3185339610517346</v>
+        <v>0.2339261836001825</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.775832923406746</v>
+        <v>0.4909384730354205</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9120262241463024</v>
+        <v>2.946646782934238</v>
       </c>
       <c r="C8">
-        <v>0.3118282149498555</v>
+        <v>1.011457735200537</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4078068699088391</v>
+        <v>1.400704985255473</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.403457570627026</v>
+        <v>0.7663665221827358</v>
       </c>
       <c r="H8">
-        <v>0.4807987034883041</v>
+        <v>0.4175214870767974</v>
       </c>
       <c r="I8">
-        <v>0.3180120325488929</v>
+        <v>0.2581556066520676</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7621370623436476</v>
+        <v>0.4542740904743781</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.211314811976479</v>
+        <v>3.998724999653007</v>
       </c>
       <c r="C9">
-        <v>0.413707161319735</v>
+        <v>1.37208662385035</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5451582370615995</v>
+        <v>1.959180134132595</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171845327</v>
       </c>
       <c r="G9">
-        <v>0.4595694294094699</v>
+        <v>1.051735286654022</v>
       </c>
       <c r="H9">
-        <v>0.4932862672492178</v>
+        <v>0.5289614561739171</v>
       </c>
       <c r="I9">
-        <v>0.3198666402156221</v>
+        <v>0.3181635744604634</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7386761574914971</v>
+        <v>0.3917999564374313</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.431152623251364</v>
+        <v>4.793915008180534</v>
       </c>
       <c r="C10">
-        <v>0.4882644680061503</v>
+        <v>1.647141593268486</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6468887751503019</v>
+        <v>2.40074550374618</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.5033371460364435</v>
+        <v>1.284725120997905</v>
       </c>
       <c r="H10">
-        <v>0.5046147284691642</v>
+        <v>0.6226248797348717</v>
       </c>
       <c r="I10">
-        <v>0.3230308661722958</v>
+        <v>0.372463572009238</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7235160879941915</v>
+        <v>0.3526258589313187</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.53116837481997</v>
+        <v>5.16274419733611</v>
       </c>
       <c r="C11">
-        <v>0.5221298938004111</v>
+        <v>1.775503347603546</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6933857715410454</v>
+        <v>2.611502909558538</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639217</v>
       </c>
       <c r="G11">
-        <v>0.5238271074569241</v>
+        <v>1.397579160204174</v>
       </c>
       <c r="H11">
-        <v>0.5102468048190758</v>
+        <v>0.6686161461655047</v>
       </c>
       <c r="I11">
-        <v>0.3248718562756352</v>
+        <v>0.4000668617868683</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7170717744467368</v>
+        <v>0.3365187138122749</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.569044134532078</v>
+        <v>5.303651436329346</v>
       </c>
       <c r="C12">
-        <v>0.5349472630044829</v>
+        <v>1.824679650965777</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.711027571260459</v>
+        <v>2.693050172433686</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.5316716139712128</v>
+        <v>1.441479061946325</v>
       </c>
       <c r="H12">
-        <v>0.5124492182878555</v>
+        <v>0.6865996798449601</v>
       </c>
       <c r="I12">
-        <v>0.3256275713761099</v>
+        <v>0.4110042810972914</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7146966385333826</v>
+        <v>0.3306904943820754</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.560886816836955</v>
+        <v>5.273245537994455</v>
       </c>
       <c r="C13">
-        <v>0.5321871027758789</v>
+        <v>1.814061547225037</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7072265181229511</v>
+        <v>2.67540452710233</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.5299783283257682</v>
+        <v>1.43196951570593</v>
       </c>
       <c r="H13">
-        <v>0.511971777267604</v>
+        <v>0.6826999285794955</v>
       </c>
       <c r="I13">
-        <v>0.3254621963402613</v>
+        <v>0.4086259722458365</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.715205264464899</v>
+        <v>0.331933211560731</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.534284394200313</v>
+        <v>5.174310495236568</v>
       </c>
       <c r="C14">
-        <v>0.5231845178610683</v>
+        <v>1.779537067823128</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6948364670813021</v>
+        <v>2.618174993867143</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.5244707564452824</v>
+        <v>1.401166377598315</v>
       </c>
       <c r="H14">
-        <v>0.5104265976436011</v>
+        <v>0.6700837757090312</v>
       </c>
       <c r="I14">
-        <v>0.3249328507738127</v>
+        <v>0.4009565537381263</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7168750631162837</v>
+        <v>0.3360336328989746</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.51798991249774</v>
+        <v>5.113878465947892</v>
       </c>
       <c r="C15">
-        <v>0.5176693162447918</v>
+        <v>1.758467205564273</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6872517683494976</v>
+        <v>2.583356995242127</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.5211083921197428</v>
+        <v>1.382455956576109</v>
       </c>
       <c r="H15">
-        <v>0.5094892282412502</v>
+        <v>0.6624325654283609</v>
       </c>
       <c r="I15">
-        <v>0.3246162638296539</v>
+        <v>0.3963241050746831</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7179063575428373</v>
+        <v>0.3385813733564831</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.424616607600001</v>
+        <v>4.76997190178281</v>
       </c>
       <c r="C16">
-        <v>0.4860503070864866</v>
+        <v>1.638826424721287</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6438547432163944</v>
+        <v>2.387196686397445</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.5020099189098914</v>
+        <v>1.27750253661236</v>
       </c>
       <c r="H16">
-        <v>0.5042563626028027</v>
+        <v>0.6196939770283905</v>
       </c>
       <c r="I16">
-        <v>0.3229187042369475</v>
+        <v>0.3707235556479986</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7239463509638142</v>
+        <v>0.3537150228380526</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.367338101735243</v>
+        <v>4.560959088998118</v>
       </c>
       <c r="C17">
-        <v>0.4666404198898135</v>
+        <v>1.566328102671264</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6172902577191763</v>
+        <v>2.269598310397427</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.4904435628485544</v>
+        <v>1.214993282757746</v>
       </c>
       <c r="H17">
-        <v>0.5011693646611945</v>
+        <v>0.5943957031161631</v>
       </c>
       <c r="I17">
-        <v>0.3219807435990987</v>
+        <v>0.3558065322968389</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.727767602622535</v>
+        <v>0.3634544999766121</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.334393971900738</v>
+        <v>4.441393139634329</v>
       </c>
       <c r="C18">
-        <v>0.4554715221086667</v>
+        <v>1.5249266986973</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.6020315322712548</v>
+        <v>2.202867452845439</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.4838453525832165</v>
+        <v>1.17967378184602</v>
       </c>
       <c r="H18">
-        <v>0.4994388125163027</v>
+        <v>0.580157733709143</v>
       </c>
       <c r="I18">
-        <v>0.3214790009950192</v>
+        <v>0.3474952232162138</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7300080260488784</v>
+        <v>0.3692159899450758</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.323239805403432</v>
+        <v>4.401016107863597</v>
       </c>
       <c r="C19">
-        <v>0.4516890748801643</v>
+        <v>1.51095715662035</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5968686181586946</v>
+        <v>2.180420873588744</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.4816206026700911</v>
+        <v>1.167819157844008</v>
       </c>
       <c r="H19">
-        <v>0.498860582185074</v>
+        <v>0.5753884736187729</v>
       </c>
       <c r="I19">
-        <v>0.321315577668102</v>
+        <v>0.3447253925136735</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7307738960418462</v>
+        <v>0.3711934395979597</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.373435394670594</v>
+        <v>4.583139824083673</v>
       </c>
       <c r="C20">
-        <v>0.4687071324569274</v>
+        <v>1.574014167891846</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.620115953929627</v>
+        <v>2.282020712813676</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.4916691710266718</v>
+        <v>1.221580667809974</v>
       </c>
       <c r="H20">
-        <v>0.5014933167934146</v>
+        <v>0.597055812301619</v>
       </c>
       <c r="I20">
-        <v>0.3220766784301006</v>
+        <v>0.357366223240291</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7273564198430762</v>
+        <v>0.3624010286712576</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.542098113377335</v>
+        <v>5.20333454987491</v>
       </c>
       <c r="C21">
-        <v>0.5258289730597312</v>
+        <v>1.789661410433609</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6984747688324688</v>
+        <v>2.634934706707426</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.526086129746858</v>
+        <v>1.410180849216829</v>
       </c>
       <c r="H21">
-        <v>0.5108785568960741</v>
+        <v>0.6737733299662523</v>
       </c>
       <c r="I21">
-        <v>0.3250867361363987</v>
+        <v>0.4031955059302632</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7163828321909165</v>
+        <v>0.3348216644116562</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.65234064377313</v>
+        <v>5.616021459812487</v>
       </c>
       <c r="C22">
-        <v>0.5631224488782891</v>
+        <v>1.933973788153537</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7498886359077233</v>
+        <v>2.87590785500403</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031955</v>
       </c>
       <c r="G22">
-        <v>0.549078350218366</v>
+        <v>1.54033333989301</v>
       </c>
       <c r="H22">
-        <v>0.5174188277969449</v>
+        <v>0.7272686932516024</v>
       </c>
       <c r="I22">
-        <v>0.3273957754534251</v>
+        <v>0.4360117144084441</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7095909998831402</v>
+        <v>0.3183918645850952</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.593500898437185</v>
+        <v>5.395007849821013</v>
       </c>
       <c r="C23">
-        <v>0.54322157737613</v>
+        <v>1.856604141234016</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7224286587173765</v>
+        <v>2.746230430621722</v>
       </c>
       <c r="F23">
-        <v>0.7472568307915566</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.5367606587933551</v>
+        <v>1.470171771881326</v>
       </c>
       <c r="H23">
-        <v>0.5138906922905733</v>
+        <v>0.6983798566938617</v>
       </c>
       <c r="I23">
-        <v>0.3261318482902169</v>
+        <v>0.4182099345191475</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7131810936820742</v>
+        <v>0.3270056962165668</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.370678852040953</v>
+        <v>4.573110066298455</v>
       </c>
       <c r="C24">
-        <v>0.4677728025829992</v>
+        <v>1.570538436794209</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6188384147109218</v>
+        <v>2.276401832877085</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902313</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.4911149134891843</v>
+        <v>1.21860059941767</v>
       </c>
       <c r="H24">
-        <v>0.5013467204015001</v>
+        <v>0.5958522287034498</v>
       </c>
       <c r="I24">
-        <v>0.3220331895336273</v>
+        <v>0.3566602674788086</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.727542179977732</v>
+        <v>0.3628767998733622</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.130363077931634</v>
+        <v>3.710887878749588</v>
       </c>
       <c r="C25">
-        <v>0.3862012304670088</v>
+        <v>1.273065862822875</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5078702979538718</v>
+        <v>1.803525463841027</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347308</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.4439521252485861</v>
+        <v>0.9709824609570603</v>
       </c>
       <c r="H25">
-        <v>0.4895333749679338</v>
+        <v>0.4969927934912306</v>
       </c>
       <c r="I25">
-        <v>0.3190519590955603</v>
+        <v>0.3003440170954335</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.7446587381997105</v>
+        <v>0.4075976356524507</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,40 +415,46 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.090146085688332</v>
+        <v>2.847329867449787</v>
       </c>
       <c r="C2">
-        <v>1.060440107170393</v>
+        <v>0.5183325457999786</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.475193524875948</v>
+        <v>0.05450125900287617</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.8036603040999211</v>
+        <v>0.7922128967212245</v>
       </c>
       <c r="H2">
-        <v>0.4318133311709147</v>
+        <v>1.757082808762078E-05</v>
       </c>
       <c r="I2">
-        <v>0.2654807541117918</v>
+        <v>0.0004437641191672448</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5297942689932569</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4880534564689825</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,45 +463,51 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.4449451919059157</v>
+        <v>0.357128029446713</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.7882818086852765</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.675460294089135</v>
+        <v>2.480775119734517</v>
       </c>
       <c r="C3">
-        <v>0.9190573475949009</v>
+        <v>0.4562124185103187</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.261377775660435</v>
+        <v>0.05056789513564475</v>
       </c>
       <c r="F3">
-        <v>1.260820407314654</v>
+        <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.697388808477811</v>
+        <v>0.7277253472837089</v>
       </c>
       <c r="H3">
-        <v>0.3913663421924554</v>
+        <v>0.0003654806127446619</v>
       </c>
       <c r="I3">
-        <v>0.2451190523395965</v>
+        <v>0.0006830702260840482</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.504314712655642</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4712013405273225</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,45 +516,51 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.4726914587216768</v>
+        <v>0.314246608114729</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.8105239071800483</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.423007019991417</v>
+        <v>2.255099669313154</v>
       </c>
       <c r="C4">
-        <v>0.8332288478997327</v>
+        <v>0.4182892340103876</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.133372645055815</v>
+        <v>0.04814223780065063</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.6350183444919537</v>
+        <v>0.6886388756769151</v>
       </c>
       <c r="H4">
-        <v>0.3680793651448084</v>
+        <v>0.0008177571185852273</v>
       </c>
       <c r="I4">
-        <v>0.2339843995092217</v>
+        <v>0.00111443881811768</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4890099011441293</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4610860841037301</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,45 +569,51 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.4908362261144426</v>
+        <v>0.2879544108396885</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.8248245615958965</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.320570169112671</v>
+        <v>2.16120208550069</v>
       </c>
       <c r="C5">
-        <v>0.7984524587321005</v>
+        <v>0.4032306814599167</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.081901527985707</v>
+        <v>0.04712536820511559</v>
       </c>
       <c r="F5">
-        <v>1.090973950927989</v>
+        <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.6102415038236728</v>
+        <v>0.6717320151345945</v>
       </c>
       <c r="H5">
-        <v>0.3589400653056174</v>
+        <v>0.001060734040174927</v>
       </c>
       <c r="I5">
-        <v>0.2297581199805734</v>
+        <v>0.00142915453509973</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4822957877256613</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4563378913773057</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,45 +622,51 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.4984964372173053</v>
+        <v>0.2772803419376118</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.8310231583337817</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.303584300365799</v>
+        <v>2.143440074043099</v>
       </c>
       <c r="C6">
-        <v>0.792688613737198</v>
+        <v>0.4011624270448237</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.073392979182302</v>
+        <v>0.04692621407648634</v>
       </c>
       <c r="F6">
-        <v>1.082851457025455</v>
+        <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.6061636257384606</v>
+        <v>0.6675957929231942</v>
       </c>
       <c r="H6">
-        <v>0.3574425807220649</v>
+        <v>0.001106832987007866</v>
       </c>
       <c r="I6">
-        <v>0.2290742419822962</v>
+        <v>0.001580045548684517</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4805056241110321</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4547227523906976</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,45 +675,51 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.4997841295618457</v>
+        <v>0.2755506090454247</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.8323272774941657</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.421623870939356</v>
+        <v>2.2479126907009</v>
       </c>
       <c r="C7">
-        <v>0.8327590931055795</v>
+        <v>0.4192631084054028</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.132675850391337</v>
+        <v>0.04804649859029642</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.6346817120153361</v>
+        <v>0.6847573789498114</v>
       </c>
       <c r="H7">
-        <v>0.3679547396764633</v>
+        <v>0.0008263136418105166</v>
       </c>
       <c r="I7">
-        <v>0.2339261836001825</v>
+        <v>0.001360019106911636</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4870609941370105</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.4587540229507638</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,45 +728,51 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.4909384730354205</v>
+        <v>0.2879268171214022</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.8256515367038837</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.946646782934238</v>
+        <v>2.713130892078937</v>
       </c>
       <c r="C8">
-        <v>1.011457735200537</v>
+        <v>0.4984346575340339</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.400704985255473</v>
+        <v>0.05303794341802615</v>
       </c>
       <c r="F8">
-        <v>1.39074283177348</v>
+        <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.7663665221827358</v>
+        <v>0.7650092366014292</v>
       </c>
       <c r="H8">
-        <v>0.4175214870767974</v>
+        <v>8.826012123486215E-05</v>
       </c>
       <c r="I8">
-        <v>0.2581556066520676</v>
+        <v>0.000747887510386569</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5184732154466047</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4791896655460803</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,45 +781,51 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.4542740904743781</v>
+        <v>0.342488179448651</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.7968874403554267</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.998724999653007</v>
+        <v>3.632121558079405</v>
       </c>
       <c r="C9">
-        <v>1.37208662385035</v>
+        <v>0.653790831736643</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.959180134132595</v>
+        <v>0.06294499114235208</v>
       </c>
       <c r="F9">
-        <v>1.895061171845327</v>
+        <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>1.051735286654022</v>
+        <v>0.933699874314982</v>
       </c>
       <c r="H9">
-        <v>0.5289614561739171</v>
+        <v>0.0006909770667185011</v>
       </c>
       <c r="I9">
-        <v>0.3181635744604634</v>
+        <v>0.001643028816781467</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.5864158556452139</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.5254186690296976</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,45 +834,51 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.3917999564374313</v>
+        <v>0.4497496837856403</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.7443466981313662</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.793915008180534</v>
+        <v>4.273764522331987</v>
       </c>
       <c r="C10">
-        <v>1.647141593268486</v>
+        <v>0.7729809192475727</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.40074550374618</v>
+        <v>0.06790204233752917</v>
       </c>
       <c r="F10">
-        <v>2.275587181990801</v>
+        <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>1.284725120997905</v>
+        <v>1.040982218782034</v>
       </c>
       <c r="H10">
-        <v>0.6226248797348717</v>
+        <v>0.00265044848530005</v>
       </c>
       <c r="I10">
-        <v>0.372463572009238</v>
+        <v>0.004107643994883503</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6283287600308682</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.5493696235747052</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,45 +887,51 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.3526258589313187</v>
+        <v>0.5081247001871247</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.7147467496646982</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.16274419733611</v>
+        <v>4.300465073568319</v>
       </c>
       <c r="C11">
-        <v>1.775503347603546</v>
+        <v>0.850987486805991</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.611502909558538</v>
+        <v>0.05566737518787424</v>
       </c>
       <c r="F11">
-        <v>2.451628164639217</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>1.397579160204174</v>
+        <v>0.9265957205264073</v>
       </c>
       <c r="H11">
-        <v>0.6686161461655047</v>
+        <v>0.02116664851995509</v>
       </c>
       <c r="I11">
-        <v>0.4000668617868683</v>
+        <v>0.005269755292014899</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.5655998559955009</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.4699232971592835</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,45 +940,51 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.3365187138122749</v>
+        <v>0.3674238097913189</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.7577662000680334</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.303651436329346</v>
+        <v>4.195209109829591</v>
       </c>
       <c r="C12">
-        <v>1.824679650965777</v>
+        <v>0.8905831671385442</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.693050172433686</v>
+        <v>0.0524197363684058</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>1.441479061946325</v>
+        <v>0.8181502079777516</v>
       </c>
       <c r="H12">
-        <v>0.6865996798449601</v>
+        <v>0.05956462115766925</v>
       </c>
       <c r="I12">
-        <v>0.4110042810972914</v>
+        <v>0.005277030698483287</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.5089196588099725</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.4062906529521939</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,45 +993,51 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.3306904943820754</v>
+        <v>0.2567718840773807</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.8120551896556876</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.273245537994455</v>
+        <v>3.973737260916096</v>
       </c>
       <c r="C13">
-        <v>1.814061547225037</v>
+        <v>0.904278905015758</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.67540452710233</v>
+        <v>0.05559061918049402</v>
       </c>
       <c r="F13">
-        <v>2.504295469236098</v>
+        <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>1.43196951570593</v>
+        <v>0.7024270446429739</v>
       </c>
       <c r="H13">
-        <v>0.6826999285794955</v>
+        <v>0.1148344511315713</v>
       </c>
       <c r="I13">
-        <v>0.4086259722458365</v>
+        <v>0.004704485059729535</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.4507249832503248</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3476113476256373</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,45 +1046,51 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.331933211560731</v>
+        <v>0.1635851011938314</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.8778318672318761</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.174310495236568</v>
+        <v>3.76574618982437</v>
       </c>
       <c r="C14">
-        <v>1.779537067823128</v>
+        <v>0.90253174906195</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.618174993867143</v>
+        <v>0.06169013500183951</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>1.401166377598315</v>
+        <v>0.6187139701811759</v>
       </c>
       <c r="H14">
-        <v>0.6700837757090312</v>
+        <v>0.1637926554009539</v>
       </c>
       <c r="I14">
-        <v>0.4009565537381263</v>
+        <v>0.004163821972693604</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.4095240255100663</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3092874716221061</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,45 +1099,51 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.3360336328989746</v>
+        <v>0.1096148857582193</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.9305315216291632</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.113878465947892</v>
+        <v>3.688744908146077</v>
       </c>
       <c r="C15">
-        <v>1.758467205564273</v>
+        <v>0.896954806875101</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.583356995242127</v>
+        <v>0.06348569867005693</v>
       </c>
       <c r="F15">
         <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>1.382455956576109</v>
+        <v>0.5952205331870601</v>
       </c>
       <c r="H15">
-        <v>0.6624325654283609</v>
+        <v>0.1761412864105836</v>
       </c>
       <c r="I15">
-        <v>0.3963241050746831</v>
+        <v>0.004028238390961114</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3984065580197864</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2998717485394948</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,45 +1152,51 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.3385813733564831</v>
+        <v>0.09767117997169095</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.944731278543685</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.76997190178281</v>
+        <v>3.460132450906826</v>
       </c>
       <c r="C16">
-        <v>1.638826424721287</v>
+        <v>0.8424719884279739</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.387196686397445</v>
+        <v>0.06052160768669523</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>2.264147245220144</v>
       </c>
       <c r="G16">
-        <v>1.27750253661236</v>
+        <v>0.5724711859811435</v>
       </c>
       <c r="H16">
-        <v>0.6196939770283905</v>
+        <v>0.1626888202199268</v>
       </c>
       <c r="I16">
-        <v>0.3707235556479986</v>
+        <v>0.003172009709182078</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.3918663388346033</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3010552148154488</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,45 +1205,51 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.3537150228380526</v>
+        <v>0.09467551053399603</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.9400669397820707</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.560959088998118</v>
+        <v>3.394293922042834</v>
       </c>
       <c r="C17">
-        <v>1.566328102671264</v>
+        <v>0.8018723659994862</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.269598310397427</v>
+        <v>0.05433404561505206</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>1.214993282757746</v>
+        <v>0.5985790861852678</v>
       </c>
       <c r="H17">
-        <v>0.5943957031161631</v>
+        <v>0.1245776886727015</v>
       </c>
       <c r="I17">
-        <v>0.3558065322968389</v>
+        <v>0.002839875719396368</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.4083613346811035</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3216602348024296</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,45 +1258,51 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.3634544999766121</v>
+        <v>0.1186574352870551</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.9083686972748382</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.441393139634329</v>
+        <v>3.465618369682943</v>
       </c>
       <c r="C18">
-        <v>1.5249266986973</v>
+        <v>0.7676540066440509</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.202867452845439</v>
+        <v>0.04848803234656529</v>
       </c>
       <c r="F18">
-        <v>2.107028586650742</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>1.17967378184602</v>
+        <v>0.6749919695757711</v>
       </c>
       <c r="H18">
-        <v>0.580157733709143</v>
+        <v>0.07171887332926019</v>
       </c>
       <c r="I18">
-        <v>0.3474952232162138</v>
+        <v>0.002563277720819102</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.4490903098668042</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3653149604848487</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,45 +1311,51 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.3692159899450758</v>
+        <v>0.1789833876096552</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.8540225259241367</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.401016107863597</v>
+        <v>3.632585167767843</v>
       </c>
       <c r="C19">
-        <v>1.51095715662035</v>
+        <v>0.7439030589810329</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.180420873588744</v>
+        <v>0.04901281243386979</v>
       </c>
       <c r="F19">
-        <v>2.087706772594757</v>
+        <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>1.167819157844008</v>
+        <v>0.7858902934180492</v>
       </c>
       <c r="H19">
-        <v>0.5753884736187729</v>
+        <v>0.02675967225695075</v>
       </c>
       <c r="I19">
-        <v>0.3447253925136735</v>
+        <v>0.002862599904169372</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.5058725215058644</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.4255541516513617</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,45 +1364,51 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.3711934395979597</v>
+        <v>0.2804381139391694</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.7974232902021043</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.583139824083673</v>
+        <v>4.08505984455843</v>
       </c>
       <c r="C20">
-        <v>1.574014167891846</v>
+        <v>0.745398686576749</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.282020712813676</v>
+        <v>0.06623853470122398</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.221580667809974</v>
+        <v>1.000286750081457</v>
       </c>
       <c r="H20">
-        <v>0.597055812301619</v>
+        <v>0.001989108973281972</v>
       </c>
       <c r="I20">
-        <v>0.357366223240291</v>
+        <v>0.004025691553684041</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.6109874586984745</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.5355180143611307</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,45 +1417,51 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.3624010286712576</v>
+        <v>0.492256004792182</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.7255125422762845</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.20333454987491</v>
+        <v>4.626464996280674</v>
       </c>
       <c r="C21">
-        <v>1.789661410433609</v>
+        <v>0.8333285959590739</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.634934706707426</v>
+        <v>0.07377187631270843</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.410180849216829</v>
+        <v>1.115583152195441</v>
       </c>
       <c r="H21">
-        <v>0.6737733299662523</v>
+        <v>0.003979886523498566</v>
       </c>
       <c r="I21">
-        <v>0.4031955059302632</v>
+        <v>0.00651648594895704</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.6597719775405153</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.5723140290156223</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,45 +1470,51 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.3348216644116562</v>
+        <v>0.5697742478955945</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.695928058423128</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.616021459812487</v>
+        <v>4.973713886541475</v>
       </c>
       <c r="C22">
-        <v>1.933973788153537</v>
+        <v>0.8910480925192701</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.87590785500403</v>
+        <v>0.07764941196811925</v>
       </c>
       <c r="F22">
-        <v>2.667416158031955</v>
+        <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>1.54033333989301</v>
+        <v>1.187305155313311</v>
       </c>
       <c r="H22">
-        <v>0.7272686932516024</v>
+        <v>0.005651987131758629</v>
       </c>
       <c r="I22">
-        <v>0.4360117144084441</v>
+        <v>0.008257151072006863</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.6898893830563964</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.5943880887285644</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,45 +1523,51 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.3183918645850952</v>
+        <v>0.6097641362362793</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.6785634840771806</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.395007849821013</v>
+        <v>4.795651782121524</v>
       </c>
       <c r="C23">
-        <v>1.856604141234016</v>
+        <v>0.8587396214313401</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.746230430621722</v>
+        <v>0.07567338550066616</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>1.470171771881326</v>
+        <v>1.15328449151383</v>
       </c>
       <c r="H23">
-        <v>0.6983798566938617</v>
+        <v>0.004738698359421756</v>
       </c>
       <c r="I23">
-        <v>0.4182099345191475</v>
+        <v>0.007028750058013067</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.6759544855114257</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.5852317876762854</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,45 +1576,51 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.3270056962165668</v>
+        <v>0.5882602309921907</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.6865669839606596</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.573110066298455</v>
+        <v>4.110400357778815</v>
       </c>
       <c r="C24">
-        <v>1.570538436794209</v>
+        <v>0.7399052079873343</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.276401832877085</v>
+        <v>0.06812182985898296</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.21860059941767</v>
+        <v>1.019879896888881</v>
       </c>
       <c r="H24">
-        <v>0.5958522287034498</v>
+        <v>0.001957372718814909</v>
       </c>
       <c r="I24">
-        <v>0.3566602674788086</v>
+        <v>0.003608656989898762</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.6209712254222239</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.5473078842170693</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,45 +1629,51 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.3628767998733622</v>
+        <v>0.5074332765282605</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.7203221268166686</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.710887878749588</v>
+        <v>3.372841527382036</v>
       </c>
       <c r="C25">
-        <v>1.273065862822875</v>
+        <v>0.6136256738923294</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.803525463841027</v>
+        <v>0.06011106098214825</v>
       </c>
       <c r="F25">
-        <v>1.757113814925077</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.9709824609570603</v>
+        <v>0.8807975459538824</v>
       </c>
       <c r="H25">
-        <v>0.4969927934912306</v>
+        <v>0.00027983519037722</v>
       </c>
       <c r="I25">
-        <v>0.3003440170954335</v>
+        <v>0.001501623060640611</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5643028443875977</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.508557185255988</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,9 +1682,15 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.4075976356524507</v>
+        <v>0.420869031366621</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.7595791038314346</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_2_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.847329867449787</v>
+        <v>2.680055934497034</v>
       </c>
       <c r="C2">
-        <v>0.5183325457999786</v>
+        <v>0.5415132550389501</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05450125900287617</v>
+        <v>0.05161020683945239</v>
       </c>
       <c r="F2">
         <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.7922128967212245</v>
+        <v>0.6642204431243641</v>
       </c>
       <c r="H2">
-        <v>1.757082808762078E-05</v>
+        <v>2.260881782678581E-06</v>
       </c>
       <c r="I2">
-        <v>0.0004437641191672448</v>
+        <v>0.0005513613608503221</v>
       </c>
       <c r="J2">
-        <v>0.5297942689932569</v>
+        <v>0.5149423407242324</v>
       </c>
       <c r="K2">
-        <v>0.4880534564689825</v>
+        <v>0.4158989289492112</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2064048077748097</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1147185483189439</v>
       </c>
       <c r="N2">
-        <v>0.357128029446713</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7882818086852765</v>
+        <v>0.3640064314606661</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.8028497510535431</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.480775119734517</v>
+        <v>2.343663865532847</v>
       </c>
       <c r="C3">
-        <v>0.4562124185103187</v>
+        <v>0.4737368316048958</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.05056789513564475</v>
+        <v>0.04834272406579387</v>
       </c>
       <c r="F3">
         <v>1.26082040731464</v>
       </c>
       <c r="G3">
-        <v>0.7277253472837089</v>
+        <v>0.6160406002326795</v>
       </c>
       <c r="H3">
-        <v>0.0003654806127446619</v>
+        <v>0.0002237861763791926</v>
       </c>
       <c r="I3">
-        <v>0.0006830702260840482</v>
+        <v>0.0005977657849323137</v>
       </c>
       <c r="J3">
-        <v>0.504314712655642</v>
+        <v>0.4933503726156658</v>
       </c>
       <c r="K3">
-        <v>0.4712013405273225</v>
+        <v>0.4071392430069167</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.208703263860798</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.106859315330734</v>
       </c>
       <c r="N3">
-        <v>0.314246608114729</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.8105239071800483</v>
+        <v>0.3209420621379451</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.8153866051121241</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.255099669313154</v>
+        <v>2.13597955661993</v>
       </c>
       <c r="C4">
-        <v>0.4182892340103876</v>
+        <v>0.4323986329976037</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04814223780065063</v>
+        <v>0.04631948368122796</v>
       </c>
       <c r="F4">
         <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.6886388756769151</v>
+        <v>0.5868495296207499</v>
       </c>
       <c r="H4">
-        <v>0.0008177571185852273</v>
+        <v>0.0005529147785932054</v>
       </c>
       <c r="I4">
-        <v>0.00111443881811768</v>
+        <v>0.0008479719943110808</v>
       </c>
       <c r="J4">
-        <v>0.4890099011441293</v>
+        <v>0.480076156627419</v>
       </c>
       <c r="K4">
-        <v>0.4610860841037301</v>
+        <v>0.4018446933696715</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.2100419821232258</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1026876537944936</v>
       </c>
       <c r="N4">
-        <v>0.2879544108396885</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.8248245615958965</v>
+        <v>0.2945301162767748</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.8238659321847805</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.16120208550069</v>
+        <v>2.049408834498195</v>
       </c>
       <c r="C5">
-        <v>0.4032306814599167</v>
+        <v>0.4159666622834095</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04712536820511559</v>
+        <v>0.04546784020842232</v>
       </c>
       <c r="F5">
         <v>1.090973950927975</v>
       </c>
       <c r="G5">
-        <v>0.6717320151345945</v>
+        <v>0.5740719673262902</v>
       </c>
       <c r="H5">
-        <v>0.001060734040174927</v>
+        <v>0.0007345130732125948</v>
       </c>
       <c r="I5">
-        <v>0.00142915453509973</v>
+        <v>0.001085961156231718</v>
       </c>
       <c r="J5">
-        <v>0.4822957877256613</v>
+        <v>0.4741458453492982</v>
       </c>
       <c r="K5">
-        <v>0.4563378913773057</v>
+        <v>0.3991185225496459</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2102953461530426</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.1009812828620067</v>
       </c>
       <c r="N5">
-        <v>0.2772803419376118</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8310231583337817</v>
+        <v>0.2838048270025837</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.827813594354545</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.143440074043099</v>
+        <v>2.033004409068496</v>
       </c>
       <c r="C6">
-        <v>0.4011624270448237</v>
+        <v>0.4136748018225376</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04692621407648634</v>
+        <v>0.04529918616821682</v>
       </c>
       <c r="F6">
         <v>1.082851457025441</v>
       </c>
       <c r="G6">
-        <v>0.6675957929231942</v>
+        <v>0.5707729969671647</v>
       </c>
       <c r="H6">
-        <v>0.001106832987007866</v>
+        <v>0.0007692308689777327</v>
       </c>
       <c r="I6">
-        <v>0.001580045548684517</v>
+        <v>0.001239232283245961</v>
       </c>
       <c r="J6">
-        <v>0.4805056241110321</v>
+        <v>0.4725321592809166</v>
       </c>
       <c r="K6">
-        <v>0.4547227523906976</v>
+        <v>0.3979510429923323</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2100029121439562</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.1005013843688314</v>
       </c>
       <c r="N6">
-        <v>0.2755506090454247</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.8323272774941657</v>
+        <v>0.2820649877373569</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.8288524934299488</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.2479126907009</v>
+        <v>2.126688069585725</v>
       </c>
       <c r="C7">
-        <v>0.4192631084054028</v>
+        <v>0.4321322743734584</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04804649859029642</v>
+        <v>0.04626982522374412</v>
       </c>
       <c r="F7">
         <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.6847573789498114</v>
+        <v>0.5864725705199163</v>
       </c>
       <c r="H7">
-        <v>0.0008263136418105166</v>
+        <v>0.000561806265010123</v>
       </c>
       <c r="I7">
-        <v>0.001360019106911636</v>
+        <v>0.001136674067041099</v>
       </c>
       <c r="J7">
-        <v>0.4870609941370105</v>
+        <v>0.4716437386363168</v>
       </c>
       <c r="K7">
-        <v>0.4587540229507638</v>
+        <v>0.3989437163220586</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2087371881972828</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.1018120517721002</v>
       </c>
       <c r="N7">
-        <v>0.2879268171214022</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.8256515367038837</v>
+        <v>0.2943237157433458</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.8254746820382763</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.713130892078937</v>
+        <v>2.548183799212381</v>
       </c>
       <c r="C8">
-        <v>0.4984346575340339</v>
+        <v>0.5155281224879218</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05303794341802615</v>
+        <v>0.05050972571302559</v>
       </c>
       <c r="F8">
         <v>1.390742831773508</v>
       </c>
       <c r="G8">
-        <v>0.7650092366014292</v>
+        <v>0.6533826725839305</v>
       </c>
       <c r="H8">
-        <v>8.826012123486215E-05</v>
+        <v>4.039747409945171E-05</v>
       </c>
       <c r="I8">
-        <v>0.000747887510386569</v>
+        <v>0.0008570309681878996</v>
       </c>
       <c r="J8">
-        <v>0.5184732154466047</v>
+        <v>0.4834634490185721</v>
       </c>
       <c r="K8">
-        <v>0.4791896655460803</v>
+        <v>0.4073081257607072</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2048456429707528</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1100487125850123</v>
       </c>
       <c r="N8">
-        <v>0.342488179448651</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7968874403554267</v>
+        <v>0.3487186596412499</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.810378545588307</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.632121558079405</v>
+        <v>3.385576305336599</v>
       </c>
       <c r="C9">
-        <v>0.653790831736643</v>
+        <v>0.6840237981793678</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06294499114235208</v>
+        <v>0.05873162898891238</v>
       </c>
       <c r="F9">
         <v>1.895061171842798</v>
       </c>
       <c r="G9">
-        <v>0.933699874314982</v>
+        <v>0.7830648543558993</v>
       </c>
       <c r="H9">
-        <v>0.0006909770667185011</v>
+        <v>0.0006619109288501512</v>
       </c>
       <c r="I9">
-        <v>0.001643028816781467</v>
+        <v>0.001772812235458332</v>
       </c>
       <c r="J9">
-        <v>0.5864158556452139</v>
+        <v>0.5332973960230305</v>
       </c>
       <c r="K9">
-        <v>0.5254186690296976</v>
+        <v>0.4312910860762145</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1996163441888648</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1336385855523261</v>
       </c>
       <c r="N9">
-        <v>0.4497496837856403</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.7443466981313662</v>
+        <v>0.4561968595034642</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.7832612168070341</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.273764522331987</v>
+        <v>3.953298581837544</v>
       </c>
       <c r="C10">
-        <v>0.7729809192475727</v>
+        <v>0.8049205388110749</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06790204233752917</v>
+        <v>0.06282162819070258</v>
       </c>
       <c r="F10">
         <v>2.275587181990815</v>
       </c>
       <c r="G10">
-        <v>1.040982218782034</v>
+        <v>0.8830956510310841</v>
       </c>
       <c r="H10">
-        <v>0.00265044848530005</v>
+        <v>0.002335188575715019</v>
       </c>
       <c r="I10">
-        <v>0.004107643994883503</v>
+        <v>0.003849088421128855</v>
       </c>
       <c r="J10">
-        <v>0.6283287600308682</v>
+        <v>0.5252104519701106</v>
       </c>
       <c r="K10">
-        <v>0.5493696235747052</v>
+        <v>0.4358199498040278</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1905301205961791</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1488361889703498</v>
       </c>
       <c r="N10">
-        <v>0.5081247001871247</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.7147467496646982</v>
+        <v>0.513406289257162</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.778584015956838</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.300465073568319</v>
+        <v>3.962046230153703</v>
       </c>
       <c r="C11">
-        <v>0.850987486805991</v>
+        <v>0.8645179069374933</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05566737518787424</v>
+        <v>0.05184707937140853</v>
       </c>
       <c r="F11">
         <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.9265957205264073</v>
+        <v>0.8259011964943852</v>
       </c>
       <c r="H11">
-        <v>0.02116664851995509</v>
+        <v>0.0207694534727132</v>
       </c>
       <c r="I11">
-        <v>0.005269755292014899</v>
+        <v>0.004928754513704448</v>
       </c>
       <c r="J11">
-        <v>0.5655998559955009</v>
+        <v>0.4075067335664215</v>
       </c>
       <c r="K11">
-        <v>0.4699232971592835</v>
+        <v>0.3638005897068055</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1608310976874598</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1257543039049445</v>
       </c>
       <c r="N11">
-        <v>0.3674238097913189</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.7577662000680334</v>
+        <v>0.3694206401592481</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.8537748124948621</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.195209109829591</v>
+        <v>3.866803810938052</v>
       </c>
       <c r="C12">
-        <v>0.8905831671385442</v>
+        <v>0.8921436515529138</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.0524197363684058</v>
+        <v>0.04920382210648189</v>
       </c>
       <c r="F12">
         <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.8181502079777516</v>
+        <v>0.7519989734083765</v>
       </c>
       <c r="H12">
-        <v>0.05956462115766925</v>
+        <v>0.0591804923150292</v>
       </c>
       <c r="I12">
-        <v>0.005277030698483287</v>
+        <v>0.00491661429064294</v>
       </c>
       <c r="J12">
-        <v>0.5089196588099725</v>
+        <v>0.3421269843742607</v>
       </c>
       <c r="K12">
-        <v>0.4062906529521939</v>
+        <v>0.3128987900882336</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1420689760541869</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1067068163469571</v>
       </c>
       <c r="N12">
-        <v>0.2567718840773807</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.8120551896556876</v>
+        <v>0.2573193624561156</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.925859516967094</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.973737260916096</v>
+        <v>3.684333296540899</v>
       </c>
       <c r="C13">
-        <v>0.904278905015758</v>
+        <v>0.9020742583970502</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05559061918049402</v>
+        <v>0.05288177406221806</v>
       </c>
       <c r="F13">
         <v>2.504295469238414</v>
       </c>
       <c r="G13">
-        <v>0.7024270446429739</v>
+        <v>0.6503590240531878</v>
       </c>
       <c r="H13">
-        <v>0.1148344511315713</v>
+        <v>0.1145386513210553</v>
       </c>
       <c r="I13">
-        <v>0.004704485059729535</v>
+        <v>0.004470207858607189</v>
       </c>
       <c r="J13">
-        <v>0.4507249832503248</v>
+        <v>0.312399801458227</v>
       </c>
       <c r="K13">
-        <v>0.3476113476256373</v>
+        <v>0.27260186215819</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1287842693615158</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.0893304759076301</v>
       </c>
       <c r="N13">
-        <v>0.1635851011938314</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.8778318672318761</v>
+        <v>0.1638944505438786</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.9945583544011214</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.76574618982437</v>
+        <v>3.515713323980208</v>
       </c>
       <c r="C14">
-        <v>0.90253174906195</v>
+        <v>0.9013815994865411</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.06169013500183951</v>
+        <v>0.05944529330125725</v>
       </c>
       <c r="F14">
         <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.6187139701811759</v>
+        <v>0.5688941645594383</v>
       </c>
       <c r="H14">
-        <v>0.1637926554009539</v>
+        <v>0.1635789996673935</v>
       </c>
       <c r="I14">
-        <v>0.004163821972693604</v>
+        <v>0.004081222897591275</v>
       </c>
       <c r="J14">
-        <v>0.4095240255100663</v>
+        <v>0.303935773084774</v>
       </c>
       <c r="K14">
-        <v>0.3092874716221061</v>
+        <v>0.2486674915603224</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1214910031490035</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.07801458796974714</v>
       </c>
       <c r="N14">
-        <v>0.1096148857582193</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.9305315216291632</v>
+        <v>0.1100817507636123</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>1.041280402945119</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.688744908146077</v>
+        <v>3.453752188609258</v>
       </c>
       <c r="C15">
-        <v>0.896954806875101</v>
+        <v>0.8976588409634587</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.06348569867005693</v>
+        <v>0.0614531045895621</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.5952205331870601</v>
+        <v>0.5432462431575971</v>
       </c>
       <c r="H15">
-        <v>0.1761412864105836</v>
+        <v>0.1759606251738433</v>
       </c>
       <c r="I15">
-        <v>0.004028238390961114</v>
+        <v>0.004028836541796643</v>
       </c>
       <c r="J15">
-        <v>0.3984065580197864</v>
+        <v>0.3065162266079682</v>
       </c>
       <c r="K15">
-        <v>0.2998717485394948</v>
+        <v>0.2436891841450226</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1202256224334359</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.07521743800349157</v>
       </c>
       <c r="N15">
-        <v>0.09767117997169095</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.944731278543685</v>
+        <v>0.09828397288804069</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>1.050969420043387</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.460132450906826</v>
+        <v>3.270998109371703</v>
       </c>
       <c r="C16">
-        <v>0.8424719884279739</v>
+        <v>0.8560859441157902</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06052160768669523</v>
+        <v>0.0592985214990005</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.5724711859811435</v>
+        <v>0.4984625158802771</v>
       </c>
       <c r="H16">
-        <v>0.1626888202199268</v>
+        <v>0.1626248157048593</v>
       </c>
       <c r="I16">
-        <v>0.003172009709182078</v>
+        <v>0.003400354379552439</v>
       </c>
       <c r="J16">
-        <v>0.3918663388346033</v>
+        <v>0.3511777559656508</v>
       </c>
       <c r="K16">
-        <v>0.3010552148154488</v>
+        <v>0.2532099921716622</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1258398225836856</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.07524964200431938</v>
       </c>
       <c r="N16">
-        <v>0.09467551053399603</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.9400669397820707</v>
+        <v>0.09631313740571557</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>1.021930737362752</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.394293922042834</v>
+        <v>3.215944153285307</v>
       </c>
       <c r="C17">
-        <v>0.8018723659994862</v>
+        <v>0.8223766435787354</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05433404561505206</v>
+        <v>0.05321455499821681</v>
       </c>
       <c r="F17">
         <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.5985790861852678</v>
+        <v>0.5092312549193707</v>
       </c>
       <c r="H17">
-        <v>0.1245776886727015</v>
+        <v>0.1245510534649554</v>
       </c>
       <c r="I17">
-        <v>0.002839875719396368</v>
+        <v>0.003153582141866451</v>
       </c>
       <c r="J17">
-        <v>0.4083613346811035</v>
+        <v>0.38729666913963</v>
       </c>
       <c r="K17">
-        <v>0.3216602348024296</v>
+        <v>0.2727736910870924</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1343464565150931</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.08071067782798735</v>
       </c>
       <c r="N17">
-        <v>0.1186574352870551</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.9083686972748382</v>
+        <v>0.1211086401774466</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.978527625647672</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.465618369682943</v>
+        <v>3.274849072689619</v>
       </c>
       <c r="C18">
-        <v>0.7676540066440509</v>
+        <v>0.7936726969405186</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.04848803234656529</v>
+        <v>0.04685782605281918</v>
       </c>
       <c r="F18">
         <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.6749919695757711</v>
+        <v>0.5668628655251382</v>
       </c>
       <c r="H18">
-        <v>0.07171887332926019</v>
+        <v>0.0716966736851461</v>
       </c>
       <c r="I18">
-        <v>0.002563277720819102</v>
+        <v>0.002841931254534913</v>
       </c>
       <c r="J18">
-        <v>0.4490903098668042</v>
+        <v>0.4308373328715049</v>
       </c>
       <c r="K18">
-        <v>0.3653149604848487</v>
+        <v>0.3077564554861283</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1481110694576948</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.09296690320250178</v>
       </c>
       <c r="N18">
-        <v>0.1789833876096552</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.8540225259241367</v>
+        <v>0.1824612233556806</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.9177016768715731</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.632585167767843</v>
+        <v>3.414235921448153</v>
       </c>
       <c r="C19">
-        <v>0.7439030589810329</v>
+        <v>0.7750601983864271</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.04901281243386979</v>
+        <v>0.04633225556637155</v>
       </c>
       <c r="F19">
         <v>2.087706772602971</v>
       </c>
       <c r="G19">
-        <v>0.7858902934180492</v>
+        <v>0.6547670862345569</v>
       </c>
       <c r="H19">
-        <v>0.02675967225695075</v>
+        <v>0.02671668320187592</v>
       </c>
       <c r="I19">
-        <v>0.002862599904169372</v>
+        <v>0.003131719635979024</v>
       </c>
       <c r="J19">
-        <v>0.5058725215058644</v>
+        <v>0.4801230540243324</v>
       </c>
       <c r="K19">
-        <v>0.4255541516513617</v>
+        <v>0.353667272389611</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1654310685999576</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1102297446068619</v>
       </c>
       <c r="N19">
-        <v>0.2804381139391694</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.7974232902021043</v>
+        <v>0.2851813674613055</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.856399652810822</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.08505984455843</v>
+        <v>3.79569301955064</v>
       </c>
       <c r="C20">
-        <v>0.745398686576749</v>
+        <v>0.781538979863285</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06623853470122398</v>
+        <v>0.06130374490945734</v>
       </c>
       <c r="F20">
         <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>1.000286750081457</v>
+        <v>0.8347553387849018</v>
       </c>
       <c r="H20">
-        <v>0.001989108973281972</v>
+        <v>0.001787770393067767</v>
       </c>
       <c r="I20">
-        <v>0.004025691553684041</v>
+        <v>0.004089617022861702</v>
       </c>
       <c r="J20">
-        <v>0.6109874586984745</v>
+        <v>0.544552854909881</v>
       </c>
       <c r="K20">
-        <v>0.5355180143611307</v>
+        <v>0.4316107451161315</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1917988335557901</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1435131238318945</v>
       </c>
       <c r="N20">
-        <v>0.492256004792182</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.7255125422762845</v>
+        <v>0.4984686048454563</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.7815624384923936</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.626464996280674</v>
+        <v>4.219759032920479</v>
       </c>
       <c r="C21">
-        <v>0.8333285959590739</v>
+        <v>0.8472868733250039</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.07377187631270843</v>
+        <v>0.06858371214265802</v>
       </c>
       <c r="F21">
         <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>1.115583152195441</v>
+        <v>0.9993658056630039</v>
       </c>
       <c r="H21">
-        <v>0.003979886523498566</v>
+        <v>0.003333818694138402</v>
       </c>
       <c r="I21">
-        <v>0.00651648594895704</v>
+        <v>0.00594127208924089</v>
       </c>
       <c r="J21">
-        <v>0.6597719775405153</v>
+        <v>0.4406759186102249</v>
       </c>
       <c r="K21">
-        <v>0.5723140290156223</v>
+        <v>0.4323230236140745</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1840521045836461</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.1546749274917261</v>
       </c>
       <c r="N21">
-        <v>0.5697742478955945</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.695928058423128</v>
+        <v>0.5718796031222837</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.7828358668544695</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.973713886541475</v>
+        <v>4.486056277649368</v>
       </c>
       <c r="C22">
-        <v>0.8910480925192701</v>
+        <v>0.8880896340278923</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.07764941196811925</v>
+        <v>0.07251275037316063</v>
       </c>
       <c r="F22">
         <v>2.667416158031983</v>
       </c>
       <c r="G22">
-        <v>1.187305155313311</v>
+        <v>1.11275526420107</v>
       </c>
       <c r="H22">
-        <v>0.005651987131758629</v>
+        <v>0.004616474392211134</v>
       </c>
       <c r="I22">
-        <v>0.008257151072006863</v>
+        <v>0.007052884398136783</v>
       </c>
       <c r="J22">
-        <v>0.6898893830563964</v>
+        <v>0.3735674127456576</v>
       </c>
       <c r="K22">
-        <v>0.5943880887285644</v>
+        <v>0.4300599568988162</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1781819453860862</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.161175453508605</v>
       </c>
       <c r="N22">
-        <v>0.6097641362362793</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.6785634840771806</v>
+        <v>0.6087133391346811</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.7880157603742219</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.795651782121524</v>
+        <v>4.357945251512831</v>
       </c>
       <c r="C23">
-        <v>0.8587396214313401</v>
+        <v>0.8682210660358294</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.07567338550066616</v>
+        <v>0.0703770642918915</v>
       </c>
       <c r="F23">
         <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>1.15328449151383</v>
+        <v>1.046916563806306</v>
       </c>
       <c r="H23">
-        <v>0.004738698359421756</v>
+        <v>0.003930341944921922</v>
       </c>
       <c r="I23">
-        <v>0.007028750058013067</v>
+        <v>0.006122252230923664</v>
       </c>
       <c r="J23">
-        <v>0.6759544855114257</v>
+        <v>0.4233449348373455</v>
       </c>
       <c r="K23">
-        <v>0.5852317876762854</v>
+        <v>0.4356178611293586</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1827778067042587</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1594888796065987</v>
       </c>
       <c r="N23">
-        <v>0.5882602309921907</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.6865669839606596</v>
+        <v>0.5893874672210728</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.7812469610903818</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.110400357778815</v>
+        <v>3.817713020152439</v>
       </c>
       <c r="C24">
-        <v>0.7399052079873343</v>
+        <v>0.7766288970235848</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06812182985898296</v>
+        <v>0.0630083982815659</v>
       </c>
       <c r="F24">
         <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>1.019879896888881</v>
+        <v>0.8503777206278755</v>
       </c>
       <c r="H24">
-        <v>0.001957372718814909</v>
+        <v>0.001748143974362737</v>
       </c>
       <c r="I24">
-        <v>0.003608656989898762</v>
+        <v>0.003562979610816974</v>
       </c>
       <c r="J24">
-        <v>0.6209712254222239</v>
+        <v>0.5539736037237475</v>
       </c>
       <c r="K24">
-        <v>0.5473078842170693</v>
+        <v>0.4409780144899429</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1953381863536521</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1470220856655899</v>
       </c>
       <c r="N24">
-        <v>0.5074332765282605</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.7203221268166686</v>
+        <v>0.5138310743996897</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.7742631618880651</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.372841527382036</v>
+        <v>3.153569743075252</v>
       </c>
       <c r="C25">
-        <v>0.6136256738923294</v>
+        <v>0.6420976434561396</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06011106098214825</v>
+        <v>0.05632804860322338</v>
       </c>
       <c r="F25">
         <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.8807975459538824</v>
+        <v>0.7372762860146906</v>
       </c>
       <c r="H25">
-        <v>0.00027983519037722</v>
+        <v>0.0002960851366817785</v>
       </c>
       <c r="I25">
-        <v>0.001501623060640611</v>
+        <v>0.001782386062832764</v>
       </c>
       <c r="J25">
-        <v>0.5643028443875977</v>
+        <v>0.5260976061991158</v>
       </c>
       <c r="K25">
-        <v>0.508557185255988</v>
+        <v>0.4225502954219067</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2002548243563069</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1258903713113284</v>
       </c>
       <c r="N25">
-        <v>0.420869031366621</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.7595791038314346</v>
+        <v>0.4275198180497597</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.7912982414270715</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
